--- a/raw_data/diapers.xlsx
+++ b/raw_data/diapers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coons/Projects/stink_bean/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F091DD-70A3-AF45-94E9-64E5BB1DA5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B230621F-A3E3-3C42-A9A1-D4EAE4B3E3D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
+    <workbookView xWindow="3160" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E54FF-0E43-8F4B-AA4E-86E123E067B4}">
-  <dimension ref="A1:E622"/>
+  <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="E613" sqref="E613"/>
+    <sheetView tabSelected="1" topLeftCell="A698" workbookViewId="0">
+      <selection activeCell="E726" sqref="E726:E733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10993,6 +10993,1893 @@
         <v>1</v>
       </c>
     </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A623" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B623" s="1">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="C623" t="s">
+        <v>5</v>
+      </c>
+      <c r="D623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A624" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B624" s="1">
+        <v>0.25416666666666665</v>
+      </c>
+      <c r="C624" t="s">
+        <v>5</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+      <c r="E624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A625" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B625" s="1">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="C625" t="s">
+        <v>5</v>
+      </c>
+      <c r="D625">
+        <v>0</v>
+      </c>
+      <c r="E625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A626" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B626" s="1">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C626" t="s">
+        <v>5</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
+      </c>
+      <c r="E626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A627" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B627" s="1">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="C627" t="s">
+        <v>5</v>
+      </c>
+      <c r="D627">
+        <v>0</v>
+      </c>
+      <c r="E627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A628" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B628" s="1">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="C628" t="s">
+        <v>6</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+      <c r="E628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A629" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B629" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="C629" t="s">
+        <v>6</v>
+      </c>
+      <c r="D629">
+        <v>0</v>
+      </c>
+      <c r="E629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A630" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B630" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C630" t="s">
+        <v>6</v>
+      </c>
+      <c r="D630">
+        <v>0</v>
+      </c>
+      <c r="E630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A631" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B631" s="1">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C631" t="s">
+        <v>6</v>
+      </c>
+      <c r="D631">
+        <v>0</v>
+      </c>
+      <c r="E631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A632" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B632" s="1">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="C632" t="s">
+        <v>6</v>
+      </c>
+      <c r="D632">
+        <v>0</v>
+      </c>
+      <c r="E632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A633" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B633" s="1">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="C633" t="s">
+        <v>6</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
+      </c>
+      <c r="E633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A634" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B634" s="1">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C634" t="s">
+        <v>6</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+      <c r="E634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A635" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B635" s="1">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="C635" t="s">
+        <v>6</v>
+      </c>
+      <c r="D635">
+        <v>0</v>
+      </c>
+      <c r="E635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A636" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B636" s="1">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="C636" t="s">
+        <v>6</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A637" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B637" s="1">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="C637" t="s">
+        <v>6</v>
+      </c>
+      <c r="D637">
+        <v>0</v>
+      </c>
+      <c r="E637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A638" s="2">
+        <v>43841</v>
+      </c>
+      <c r="B638" s="1">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C638" t="s">
+        <v>6</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+      <c r="E638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B639" s="1">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C639" t="s">
+        <v>5</v>
+      </c>
+      <c r="D639">
+        <v>0</v>
+      </c>
+      <c r="E639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B640" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C640" t="s">
+        <v>5</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
+      </c>
+      <c r="E640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B641" s="1">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="C641" t="s">
+        <v>5</v>
+      </c>
+      <c r="D641">
+        <v>0</v>
+      </c>
+      <c r="E641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B642" s="1">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="C642" t="s">
+        <v>5</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B643" s="1">
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="C643" t="s">
+        <v>5</v>
+      </c>
+      <c r="D643">
+        <v>0</v>
+      </c>
+      <c r="E643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B644" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C644" t="s">
+        <v>5</v>
+      </c>
+      <c r="D644">
+        <v>0</v>
+      </c>
+      <c r="E644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B645" s="1">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="C645" t="s">
+        <v>5</v>
+      </c>
+      <c r="D645">
+        <v>0</v>
+      </c>
+      <c r="E645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B646" s="1">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="C646" t="s">
+        <v>6</v>
+      </c>
+      <c r="D646">
+        <v>0</v>
+      </c>
+      <c r="E646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A647" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B647" s="1">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="C647" t="s">
+        <v>6</v>
+      </c>
+      <c r="D647">
+        <v>0</v>
+      </c>
+      <c r="E647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A648" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B648" s="1">
+        <v>0.1125</v>
+      </c>
+      <c r="C648" t="s">
+        <v>6</v>
+      </c>
+      <c r="D648">
+        <v>0</v>
+      </c>
+      <c r="E648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A649" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B649" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C649" t="s">
+        <v>6</v>
+      </c>
+      <c r="D649">
+        <v>0</v>
+      </c>
+      <c r="E649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A650" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B650" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C650" t="s">
+        <v>6</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+      <c r="E650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B651" s="1">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="C651" t="s">
+        <v>6</v>
+      </c>
+      <c r="D651">
+        <v>0</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652" s="2">
+        <v>43842</v>
+      </c>
+      <c r="B652" s="1">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="C652" t="s">
+        <v>6</v>
+      </c>
+      <c r="D652">
+        <v>0</v>
+      </c>
+      <c r="E652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B653" s="1">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="C653" t="s">
+        <v>5</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B654" s="1">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="C654" t="s">
+        <v>5</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+      <c r="E654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B655" s="1">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="C655" t="s">
+        <v>5</v>
+      </c>
+      <c r="D655">
+        <v>0</v>
+      </c>
+      <c r="E655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B656" s="1">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="C656" t="s">
+        <v>5</v>
+      </c>
+      <c r="D656">
+        <v>0</v>
+      </c>
+      <c r="E656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B657" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C657" t="s">
+        <v>5</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B658" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C658" t="s">
+        <v>5</v>
+      </c>
+      <c r="D658">
+        <v>0</v>
+      </c>
+      <c r="E658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A659" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B659" s="1">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C659" t="s">
+        <v>6</v>
+      </c>
+      <c r="D659">
+        <v>0</v>
+      </c>
+      <c r="E659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A660" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B660" s="1">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="C660" t="s">
+        <v>6</v>
+      </c>
+      <c r="D660">
+        <v>0</v>
+      </c>
+      <c r="E660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A661" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B661" s="1">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="C661" t="s">
+        <v>6</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+      <c r="E661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A662" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B662" s="1">
+        <v>0.25416666666666665</v>
+      </c>
+      <c r="C662" t="s">
+        <v>6</v>
+      </c>
+      <c r="D662">
+        <v>0</v>
+      </c>
+      <c r="E662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B663" s="1">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="C663" t="s">
+        <v>5</v>
+      </c>
+      <c r="D663">
+        <v>1</v>
+      </c>
+      <c r="E663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B664" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C664" t="s">
+        <v>5</v>
+      </c>
+      <c r="D664">
+        <v>0</v>
+      </c>
+      <c r="E664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B665" s="1">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="C665" t="s">
+        <v>5</v>
+      </c>
+      <c r="D665">
+        <v>0</v>
+      </c>
+      <c r="E665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B666" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C666" t="s">
+        <v>5</v>
+      </c>
+      <c r="D666">
+        <v>0</v>
+      </c>
+      <c r="E666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B667" s="1">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="C667" t="s">
+        <v>5</v>
+      </c>
+      <c r="D667">
+        <v>0</v>
+      </c>
+      <c r="E667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B668" s="1">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="C668" t="s">
+        <v>5</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B669" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C669" t="s">
+        <v>5</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A670" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B670" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C670" t="s">
+        <v>5</v>
+      </c>
+      <c r="D670">
+        <v>0</v>
+      </c>
+      <c r="E670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A671" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B671" s="1">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C671" t="s">
+        <v>6</v>
+      </c>
+      <c r="D671">
+        <v>0</v>
+      </c>
+      <c r="E671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A672" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B672" s="1">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="C672" t="s">
+        <v>6</v>
+      </c>
+      <c r="D672">
+        <v>0</v>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A673" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B673" s="1">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="C673" t="s">
+        <v>6</v>
+      </c>
+      <c r="D673">
+        <v>0</v>
+      </c>
+      <c r="E673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A674" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B674" s="1">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C674" t="s">
+        <v>6</v>
+      </c>
+      <c r="D674">
+        <v>0</v>
+      </c>
+      <c r="E674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A675" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B675" s="1">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C675" t="s">
+        <v>5</v>
+      </c>
+      <c r="D675">
+        <v>0</v>
+      </c>
+      <c r="E675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A676" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B676" s="1">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="C676" t="s">
+        <v>5</v>
+      </c>
+      <c r="D676">
+        <v>1</v>
+      </c>
+      <c r="E676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A677" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B677" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C677" t="s">
+        <v>5</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A678" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B678" s="1">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="C678" t="s">
+        <v>5</v>
+      </c>
+      <c r="D678">
+        <v>0</v>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A679" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B679" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C679" t="s">
+        <v>5</v>
+      </c>
+      <c r="D679">
+        <v>0</v>
+      </c>
+      <c r="E679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A680" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B680" s="1">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="C680" t="s">
+        <v>6</v>
+      </c>
+      <c r="D680">
+        <v>0</v>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A681" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B681" s="1">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="C681" t="s">
+        <v>6</v>
+      </c>
+      <c r="D681">
+        <v>0</v>
+      </c>
+      <c r="E681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A682" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B682" s="1">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="C682" t="s">
+        <v>6</v>
+      </c>
+      <c r="D682">
+        <v>0</v>
+      </c>
+      <c r="E682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A683" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B683" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="C683" t="s">
+        <v>6</v>
+      </c>
+      <c r="D683">
+        <v>0</v>
+      </c>
+      <c r="E683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A684" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B684" s="1">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="C684" t="s">
+        <v>6</v>
+      </c>
+      <c r="D684">
+        <v>1</v>
+      </c>
+      <c r="E684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A685" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B685" s="1">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="C685" t="s">
+        <v>6</v>
+      </c>
+      <c r="D685">
+        <v>0</v>
+      </c>
+      <c r="E685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A686" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B686" s="1">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C686" t="s">
+        <v>6</v>
+      </c>
+      <c r="D686">
+        <v>0</v>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A687" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B687" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C687" t="s">
+        <v>5</v>
+      </c>
+      <c r="D687">
+        <v>0</v>
+      </c>
+      <c r="E687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A688" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B688" s="1">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="C688" t="s">
+        <v>5</v>
+      </c>
+      <c r="D688">
+        <v>0</v>
+      </c>
+      <c r="E688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A689" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B689" s="1">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="C689" t="s">
+        <v>5</v>
+      </c>
+      <c r="D689">
+        <v>0</v>
+      </c>
+      <c r="E689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A690" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B690" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C690" t="s">
+        <v>5</v>
+      </c>
+      <c r="D690">
+        <v>0</v>
+      </c>
+      <c r="E690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A691" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B691" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C691" t="s">
+        <v>5</v>
+      </c>
+      <c r="D691">
+        <v>0</v>
+      </c>
+      <c r="E691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A692" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B692" s="1">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C692" t="s">
+        <v>6</v>
+      </c>
+      <c r="D692">
+        <v>0</v>
+      </c>
+      <c r="E692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A693" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B693" s="1">
+        <v>0.15486111111111112</v>
+      </c>
+      <c r="C693" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A694" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B694" s="1">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="C694" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694">
+        <v>0</v>
+      </c>
+      <c r="E694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A695" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B695" s="1">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="C695" t="s">
+        <v>6</v>
+      </c>
+      <c r="D695">
+        <v>0</v>
+      </c>
+      <c r="E695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A696" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B696" s="1">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="C696" t="s">
+        <v>6</v>
+      </c>
+      <c r="D696">
+        <v>0</v>
+      </c>
+      <c r="E696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A697" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B697" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C697" t="s">
+        <v>6</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
+      </c>
+      <c r="E697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A698" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B698" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C698" t="s">
+        <v>5</v>
+      </c>
+      <c r="D698">
+        <v>0</v>
+      </c>
+      <c r="E698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A699" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B699" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C699" t="s">
+        <v>5</v>
+      </c>
+      <c r="D699">
+        <v>1</v>
+      </c>
+      <c r="E699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A700" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B700" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C700" t="s">
+        <v>6</v>
+      </c>
+      <c r="D700">
+        <v>0</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A701" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B701" s="1">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="C701" t="s">
+        <v>6</v>
+      </c>
+      <c r="D701">
+        <v>0</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A702" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B702" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C702" t="s">
+        <v>6</v>
+      </c>
+      <c r="D702">
+        <v>0</v>
+      </c>
+      <c r="E702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A703" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B703" s="1">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="C703" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703">
+        <v>0</v>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A704" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B704" s="1">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="C704" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704">
+        <v>0</v>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B705" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C705" t="s">
+        <v>6</v>
+      </c>
+      <c r="D705">
+        <v>0</v>
+      </c>
+      <c r="E705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B706" s="1">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="C706" t="s">
+        <v>5</v>
+      </c>
+      <c r="D706">
+        <v>0</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B707" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C707" t="s">
+        <v>5</v>
+      </c>
+      <c r="D707">
+        <v>1</v>
+      </c>
+      <c r="E707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B708" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C708" t="s">
+        <v>5</v>
+      </c>
+      <c r="D708">
+        <v>0</v>
+      </c>
+      <c r="E708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B709" s="1">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="C709" t="s">
+        <v>5</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+      <c r="E709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B710" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C710" t="s">
+        <v>5</v>
+      </c>
+      <c r="D710">
+        <v>0</v>
+      </c>
+      <c r="E710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B711" s="1">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="C711" t="s">
+        <v>6</v>
+      </c>
+      <c r="D711">
+        <v>0</v>
+      </c>
+      <c r="E711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B712" s="1">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="C712" t="s">
+        <v>6</v>
+      </c>
+      <c r="D712">
+        <v>0</v>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B713" s="1">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C713" t="s">
+        <v>6</v>
+      </c>
+      <c r="D713">
+        <v>0</v>
+      </c>
+      <c r="E713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B714" s="1">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="C714" t="s">
+        <v>6</v>
+      </c>
+      <c r="D714">
+        <v>0</v>
+      </c>
+      <c r="E714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B715" s="1">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="C715" t="s">
+        <v>5</v>
+      </c>
+      <c r="D715">
+        <v>0</v>
+      </c>
+      <c r="E715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B716" s="1">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="C716" t="s">
+        <v>5</v>
+      </c>
+      <c r="D716">
+        <v>0</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B717" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C717" t="s">
+        <v>5</v>
+      </c>
+      <c r="D717">
+        <v>0</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B718" s="1">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="C718" t="s">
+        <v>5</v>
+      </c>
+      <c r="D718">
+        <v>0</v>
+      </c>
+      <c r="E718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B719" s="1">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C719" t="s">
+        <v>5</v>
+      </c>
+      <c r="D719">
+        <v>0</v>
+      </c>
+      <c r="E719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B720" s="1">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="C720" t="s">
+        <v>6</v>
+      </c>
+      <c r="D720">
+        <v>0</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B721" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C721" t="s">
+        <v>6</v>
+      </c>
+      <c r="D721">
+        <v>0</v>
+      </c>
+      <c r="E721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B722" s="1">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="C722" t="s">
+        <v>6</v>
+      </c>
+      <c r="D722">
+        <v>0</v>
+      </c>
+      <c r="E722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B723" s="1">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="C723" t="s">
+        <v>6</v>
+      </c>
+      <c r="D723">
+        <v>0</v>
+      </c>
+      <c r="E723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B724" s="1">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="C724" t="s">
+        <v>5</v>
+      </c>
+      <c r="D724">
+        <v>0</v>
+      </c>
+      <c r="E724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B725" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C725" t="s">
+        <v>5</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+      <c r="E725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B726" s="1">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="C726" t="s">
+        <v>5</v>
+      </c>
+      <c r="D726">
+        <v>0</v>
+      </c>
+      <c r="E726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B727" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C727" t="s">
+        <v>5</v>
+      </c>
+      <c r="D727">
+        <v>0</v>
+      </c>
+      <c r="E727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A728" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B728" s="1">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C728" t="s">
+        <v>5</v>
+      </c>
+      <c r="D728">
+        <v>0</v>
+      </c>
+      <c r="E728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B729" s="1">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="C729" t="s">
+        <v>5</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A730" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B730" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C730" t="s">
+        <v>5</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+      <c r="E730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A731" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B731" s="1">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="C731" t="s">
+        <v>6</v>
+      </c>
+      <c r="D731">
+        <v>0</v>
+      </c>
+      <c r="E731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A732" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B732" s="1">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="C732" t="s">
+        <v>6</v>
+      </c>
+      <c r="D732">
+        <v>0</v>
+      </c>
+      <c r="E732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A733" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B733" s="1">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C733" t="s">
+        <v>6</v>
+      </c>
+      <c r="D733">
+        <v>0</v>
+      </c>
+      <c r="E733">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/diapers.xlsx
+++ b/raw_data/diapers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coons/Projects/stink_bean/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B230621F-A3E3-3C42-A9A1-D4EAE4B3E3D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6E038-4048-5B44-A547-91B96491095C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
+    <workbookView xWindow="8520" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E54FF-0E43-8F4B-AA4E-86E123E067B4}">
-  <dimension ref="A1:E733"/>
+  <dimension ref="A1:E930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A698" workbookViewId="0">
-      <selection activeCell="E726" sqref="E726:E733"/>
+    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
+      <selection activeCell="E921" sqref="E921:E930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12880,6 +12880,3355 @@
         <v>1</v>
       </c>
     </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A734" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B734" s="1">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="C734" t="s">
+        <v>5</v>
+      </c>
+      <c r="D734">
+        <v>0</v>
+      </c>
+      <c r="E734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B735" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C735" t="s">
+        <v>5</v>
+      </c>
+      <c r="D735">
+        <v>0</v>
+      </c>
+      <c r="E735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B736" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C736" t="s">
+        <v>5</v>
+      </c>
+      <c r="D736">
+        <v>0</v>
+      </c>
+      <c r="E736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B737" s="1">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="C737" t="s">
+        <v>5</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B738" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C738" t="s">
+        <v>5</v>
+      </c>
+      <c r="D738">
+        <v>0</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B739" s="1">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="C739" t="s">
+        <v>5</v>
+      </c>
+      <c r="D739">
+        <v>0</v>
+      </c>
+      <c r="E739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B740" s="1">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="C740" t="s">
+        <v>6</v>
+      </c>
+      <c r="D740">
+        <v>0</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B741" s="1">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="C741" t="s">
+        <v>6</v>
+      </c>
+      <c r="D741">
+        <v>0</v>
+      </c>
+      <c r="E741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B742" s="1">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="C742" t="s">
+        <v>6</v>
+      </c>
+      <c r="D742">
+        <v>0</v>
+      </c>
+      <c r="E742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B743" s="1">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="C743" t="s">
+        <v>5</v>
+      </c>
+      <c r="D743">
+        <v>0</v>
+      </c>
+      <c r="E743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B744" s="1">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="C744" t="s">
+        <v>5</v>
+      </c>
+      <c r="D744">
+        <v>0</v>
+      </c>
+      <c r="E744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A745" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B745" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C745" t="s">
+        <v>5</v>
+      </c>
+      <c r="D745">
+        <v>0</v>
+      </c>
+      <c r="E745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A746" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B746" s="1">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="C746" t="s">
+        <v>6</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+      <c r="E746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A747" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B747" s="1">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="C747" t="s">
+        <v>6</v>
+      </c>
+      <c r="D747">
+        <v>0</v>
+      </c>
+      <c r="E747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A748" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B748" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C748" t="s">
+        <v>6</v>
+      </c>
+      <c r="D748">
+        <v>1</v>
+      </c>
+      <c r="E748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A749" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B749" s="1">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="C749" t="s">
+        <v>6</v>
+      </c>
+      <c r="D749">
+        <v>0</v>
+      </c>
+      <c r="E749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B750" s="1">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="C750" t="s">
+        <v>6</v>
+      </c>
+      <c r="D750">
+        <v>0</v>
+      </c>
+      <c r="E750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B751" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C751" t="s">
+        <v>6</v>
+      </c>
+      <c r="D751">
+        <v>0</v>
+      </c>
+      <c r="E751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B752" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C752" t="s">
+        <v>5</v>
+      </c>
+      <c r="D752">
+        <v>0</v>
+      </c>
+      <c r="E752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A753" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B753" s="1">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="C753" t="s">
+        <v>5</v>
+      </c>
+      <c r="D753">
+        <v>0</v>
+      </c>
+      <c r="E753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A754" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B754" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C754" t="s">
+        <v>5</v>
+      </c>
+      <c r="D754">
+        <v>0</v>
+      </c>
+      <c r="E754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A755" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B755" s="1">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="C755" t="s">
+        <v>5</v>
+      </c>
+      <c r="D755">
+        <v>1</v>
+      </c>
+      <c r="E755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A756" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B756" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C756" t="s">
+        <v>5</v>
+      </c>
+      <c r="D756">
+        <v>0</v>
+      </c>
+      <c r="E756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A757" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B757" s="1">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C757" t="s">
+        <v>6</v>
+      </c>
+      <c r="D757">
+        <v>0</v>
+      </c>
+      <c r="E757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A758" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B758" s="1">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="C758" t="s">
+        <v>6</v>
+      </c>
+      <c r="D758">
+        <v>0</v>
+      </c>
+      <c r="E758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A759" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B759" s="1">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="C759" t="s">
+        <v>6</v>
+      </c>
+      <c r="D759">
+        <v>0</v>
+      </c>
+      <c r="E759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A760" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B760" s="1">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="C760" t="s">
+        <v>5</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A761" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B761" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C761" t="s">
+        <v>5</v>
+      </c>
+      <c r="D761">
+        <v>0</v>
+      </c>
+      <c r="E761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A762" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B762" s="1">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C762" t="s">
+        <v>5</v>
+      </c>
+      <c r="D762">
+        <v>0</v>
+      </c>
+      <c r="E762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A763" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B763" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C763" t="s">
+        <v>6</v>
+      </c>
+      <c r="D763">
+        <v>0</v>
+      </c>
+      <c r="E763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A764" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B764" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C764" t="s">
+        <v>6</v>
+      </c>
+      <c r="D764">
+        <v>0</v>
+      </c>
+      <c r="E764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A765" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B765" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C765" t="s">
+        <v>6</v>
+      </c>
+      <c r="D765">
+        <v>0</v>
+      </c>
+      <c r="E765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A766" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B766" s="1">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="C766" t="s">
+        <v>6</v>
+      </c>
+      <c r="D766">
+        <v>0</v>
+      </c>
+      <c r="E766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A767" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B767" s="1">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C767" t="s">
+        <v>6</v>
+      </c>
+      <c r="D767">
+        <v>0</v>
+      </c>
+      <c r="E767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A768" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B768" s="1">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="C768" t="s">
+        <v>5</v>
+      </c>
+      <c r="D768">
+        <v>0</v>
+      </c>
+      <c r="E768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A769" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B769" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C769" t="s">
+        <v>5</v>
+      </c>
+      <c r="D769">
+        <v>0</v>
+      </c>
+      <c r="E769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A770" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B770" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C770" t="s">
+        <v>5</v>
+      </c>
+      <c r="D770">
+        <v>0</v>
+      </c>
+      <c r="E770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A771" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B771" s="1">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="C771" t="s">
+        <v>6</v>
+      </c>
+      <c r="D771">
+        <v>0</v>
+      </c>
+      <c r="E771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A772" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B772" s="1">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C772" t="s">
+        <v>6</v>
+      </c>
+      <c r="D772">
+        <v>0</v>
+      </c>
+      <c r="E772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A773" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B773" s="1">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="C773" t="s">
+        <v>6</v>
+      </c>
+      <c r="D773">
+        <v>0</v>
+      </c>
+      <c r="E773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A774" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B774" s="1">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="C774" t="s">
+        <v>6</v>
+      </c>
+      <c r="D774">
+        <v>0</v>
+      </c>
+      <c r="E774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A775" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B775" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C775" t="s">
+        <v>6</v>
+      </c>
+      <c r="D775">
+        <v>0</v>
+      </c>
+      <c r="E775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A776" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B776" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C776" t="s">
+        <v>6</v>
+      </c>
+      <c r="D776">
+        <v>0</v>
+      </c>
+      <c r="E776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A777" s="2">
+        <v>43855</v>
+      </c>
+      <c r="B777" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C777" t="s">
+        <v>6</v>
+      </c>
+      <c r="D777">
+        <v>0</v>
+      </c>
+      <c r="E777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A778" s="2">
+        <v>43856</v>
+      </c>
+      <c r="B778" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C778" t="s">
+        <v>5</v>
+      </c>
+      <c r="D778">
+        <v>0</v>
+      </c>
+      <c r="E778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A779" s="2">
+        <v>43856</v>
+      </c>
+      <c r="B779" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C779" t="s">
+        <v>5</v>
+      </c>
+      <c r="D779">
+        <v>0</v>
+      </c>
+      <c r="E779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A780" s="2">
+        <v>43856</v>
+      </c>
+      <c r="B780" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C780" t="s">
+        <v>5</v>
+      </c>
+      <c r="D780">
+        <v>0</v>
+      </c>
+      <c r="E780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A781" s="2">
+        <v>43856</v>
+      </c>
+      <c r="B781" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C781" t="s">
+        <v>6</v>
+      </c>
+      <c r="D781">
+        <v>0</v>
+      </c>
+      <c r="E781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A782" s="2">
+        <v>43856</v>
+      </c>
+      <c r="B782" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C782" t="s">
+        <v>6</v>
+      </c>
+      <c r="D782">
+        <v>0</v>
+      </c>
+      <c r="E782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A783" s="2">
+        <v>43856</v>
+      </c>
+      <c r="B783" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C783" t="s">
+        <v>6</v>
+      </c>
+      <c r="D783">
+        <v>0</v>
+      </c>
+      <c r="E783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A784" s="2">
+        <v>43856</v>
+      </c>
+      <c r="B784" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C784" t="s">
+        <v>6</v>
+      </c>
+      <c r="D784">
+        <v>0</v>
+      </c>
+      <c r="E784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A785" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B785" s="1">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="C785" t="s">
+        <v>5</v>
+      </c>
+      <c r="D785">
+        <v>0</v>
+      </c>
+      <c r="E785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A786" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B786" s="1">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="C786" t="s">
+        <v>5</v>
+      </c>
+      <c r="D786">
+        <v>0</v>
+      </c>
+      <c r="E786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A787" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B787" s="1">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="C787" t="s">
+        <v>5</v>
+      </c>
+      <c r="D787">
+        <v>0</v>
+      </c>
+      <c r="E787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A788" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B788" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C788" t="s">
+        <v>5</v>
+      </c>
+      <c r="D788">
+        <v>0</v>
+      </c>
+      <c r="E788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A789" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B789" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C789" t="s">
+        <v>5</v>
+      </c>
+      <c r="D789">
+        <v>0</v>
+      </c>
+      <c r="E789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A790" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B790" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C790" t="s">
+        <v>6</v>
+      </c>
+      <c r="D790">
+        <v>0</v>
+      </c>
+      <c r="E790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A791" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B791" s="1">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="C791" t="s">
+        <v>6</v>
+      </c>
+      <c r="D791">
+        <v>0</v>
+      </c>
+      <c r="E791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A792" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B792" s="1">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="C792" t="s">
+        <v>6</v>
+      </c>
+      <c r="D792">
+        <v>0</v>
+      </c>
+      <c r="E792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A793" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B793" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C793" t="s">
+        <v>6</v>
+      </c>
+      <c r="D793">
+        <v>0</v>
+      </c>
+      <c r="E793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A794" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B794" s="1">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="C794" t="s">
+        <v>5</v>
+      </c>
+      <c r="D794">
+        <v>0</v>
+      </c>
+      <c r="E794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A795" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B795" s="1">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="C795" t="s">
+        <v>5</v>
+      </c>
+      <c r="D795">
+        <v>0</v>
+      </c>
+      <c r="E795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A796" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B796" s="1">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="C796" t="s">
+        <v>5</v>
+      </c>
+      <c r="D796">
+        <v>0</v>
+      </c>
+      <c r="E796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A797" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B797" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C797" t="s">
+        <v>6</v>
+      </c>
+      <c r="D797">
+        <v>0</v>
+      </c>
+      <c r="E797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A798" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B798" s="1">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="C798" t="s">
+        <v>6</v>
+      </c>
+      <c r="D798">
+        <v>0</v>
+      </c>
+      <c r="E798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A799" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B799" s="1">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="C799" t="s">
+        <v>6</v>
+      </c>
+      <c r="D799">
+        <v>0</v>
+      </c>
+      <c r="E799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A800" s="2">
+        <v>43858</v>
+      </c>
+      <c r="B800" s="1">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="C800" t="s">
+        <v>6</v>
+      </c>
+      <c r="D800">
+        <v>0</v>
+      </c>
+      <c r="E800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A801" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B801" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="C801" t="s">
+        <v>5</v>
+      </c>
+      <c r="D801">
+        <v>0</v>
+      </c>
+      <c r="E801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A802" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B802" s="1">
+        <v>0.19236111111111112</v>
+      </c>
+      <c r="C802" t="s">
+        <v>5</v>
+      </c>
+      <c r="D802">
+        <v>0</v>
+      </c>
+      <c r="E802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A803" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B803" s="1">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="C803" t="s">
+        <v>5</v>
+      </c>
+      <c r="D803">
+        <v>0</v>
+      </c>
+      <c r="E803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A804" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B804" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C804" t="s">
+        <v>5</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A805" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B805" s="1">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="C805" t="s">
+        <v>5</v>
+      </c>
+      <c r="D805">
+        <v>0</v>
+      </c>
+      <c r="E805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A806" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B806" s="1">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="C806" t="s">
+        <v>6</v>
+      </c>
+      <c r="D806">
+        <v>0</v>
+      </c>
+      <c r="E806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A807" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B807" s="1">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="C807" t="s">
+        <v>6</v>
+      </c>
+      <c r="D807">
+        <v>0</v>
+      </c>
+      <c r="E807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A808" s="2">
+        <v>43859</v>
+      </c>
+      <c r="B808" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C808" t="s">
+        <v>6</v>
+      </c>
+      <c r="D808">
+        <v>0</v>
+      </c>
+      <c r="E808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A809" s="2">
+        <v>43860</v>
+      </c>
+      <c r="B809" s="1">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="C809" t="s">
+        <v>5</v>
+      </c>
+      <c r="D809">
+        <v>0</v>
+      </c>
+      <c r="E809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A810" s="2">
+        <v>43860</v>
+      </c>
+      <c r="B810" s="1">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C810" t="s">
+        <v>5</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A811" s="2">
+        <v>43860</v>
+      </c>
+      <c r="B811" s="1">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C811" t="s">
+        <v>5</v>
+      </c>
+      <c r="D811">
+        <v>0</v>
+      </c>
+      <c r="E811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A812" s="2">
+        <v>43860</v>
+      </c>
+      <c r="B812" s="1">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C812" t="s">
+        <v>5</v>
+      </c>
+      <c r="D812">
+        <v>0</v>
+      </c>
+      <c r="E812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A813" s="2">
+        <v>43860</v>
+      </c>
+      <c r="B813" s="1">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="C813" t="s">
+        <v>6</v>
+      </c>
+      <c r="D813">
+        <v>1</v>
+      </c>
+      <c r="E813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A814" s="2">
+        <v>43860</v>
+      </c>
+      <c r="B814" s="1">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="C814" t="s">
+        <v>6</v>
+      </c>
+      <c r="D814">
+        <v>0</v>
+      </c>
+      <c r="E814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A815" s="2">
+        <v>43860</v>
+      </c>
+      <c r="B815" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C815" t="s">
+        <v>6</v>
+      </c>
+      <c r="D815">
+        <v>0</v>
+      </c>
+      <c r="E815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A816" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B816" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C816" t="s">
+        <v>5</v>
+      </c>
+      <c r="D816">
+        <v>0</v>
+      </c>
+      <c r="E816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A817" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B817" s="1">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="C817" t="s">
+        <v>5</v>
+      </c>
+      <c r="D817">
+        <v>0</v>
+      </c>
+      <c r="E817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A818" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B818" s="1">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="C818" t="s">
+        <v>5</v>
+      </c>
+      <c r="D818">
+        <v>0</v>
+      </c>
+      <c r="E818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A819" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B819" s="1">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C819" t="s">
+        <v>5</v>
+      </c>
+      <c r="D819">
+        <v>1</v>
+      </c>
+      <c r="E819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A820" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B820" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C820" t="s">
+        <v>5</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+      <c r="E820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A821" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B821" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C821" t="s">
+        <v>6</v>
+      </c>
+      <c r="D821">
+        <v>0</v>
+      </c>
+      <c r="E821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A822" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B822" s="1">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="C822" t="s">
+        <v>6</v>
+      </c>
+      <c r="D822">
+        <v>1</v>
+      </c>
+      <c r="E822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A823" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B823" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C823" t="s">
+        <v>6</v>
+      </c>
+      <c r="D823">
+        <v>0</v>
+      </c>
+      <c r="E823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A824" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B824" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C824" t="s">
+        <v>5</v>
+      </c>
+      <c r="D824">
+        <v>1</v>
+      </c>
+      <c r="E824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A825" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B825" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C825" t="s">
+        <v>5</v>
+      </c>
+      <c r="D825">
+        <v>0</v>
+      </c>
+      <c r="E825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A826" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B826" s="1">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="C826" t="s">
+        <v>5</v>
+      </c>
+      <c r="D826">
+        <v>0</v>
+      </c>
+      <c r="E826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A827" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B827" s="1">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="C827" t="s">
+        <v>5</v>
+      </c>
+      <c r="D827">
+        <v>1</v>
+      </c>
+      <c r="E827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A828" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B828" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C828" t="s">
+        <v>5</v>
+      </c>
+      <c r="D828">
+        <v>0</v>
+      </c>
+      <c r="E828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A829" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B829" s="1">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="C829" t="s">
+        <v>6</v>
+      </c>
+      <c r="D829">
+        <v>0</v>
+      </c>
+      <c r="E829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A830" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B830" s="1">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="C830" t="s">
+        <v>6</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A831" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B831" s="1">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="C831" t="s">
+        <v>6</v>
+      </c>
+      <c r="D831">
+        <v>0</v>
+      </c>
+      <c r="E831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A832" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B832" s="1">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="C832" t="s">
+        <v>5</v>
+      </c>
+      <c r="D832">
+        <v>0</v>
+      </c>
+      <c r="E832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A833" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B833" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C833" t="s">
+        <v>5</v>
+      </c>
+      <c r="D833">
+        <v>1</v>
+      </c>
+      <c r="E833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A834" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B834" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C834" t="s">
+        <v>5</v>
+      </c>
+      <c r="D834">
+        <v>0</v>
+      </c>
+      <c r="E834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A835" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B835" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C835" t="s">
+        <v>5</v>
+      </c>
+      <c r="D835">
+        <v>1</v>
+      </c>
+      <c r="E835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A836" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B836" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C836" t="s">
+        <v>5</v>
+      </c>
+      <c r="D836">
+        <v>1</v>
+      </c>
+      <c r="E836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A837" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B837" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C837" t="s">
+        <v>6</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+      <c r="E837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A838" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B838" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C838" t="s">
+        <v>6</v>
+      </c>
+      <c r="D838">
+        <v>0</v>
+      </c>
+      <c r="E838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A839" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B839" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C839" t="s">
+        <v>6</v>
+      </c>
+      <c r="D839">
+        <v>0</v>
+      </c>
+      <c r="E839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A840" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B840" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C840" t="s">
+        <v>6</v>
+      </c>
+      <c r="D840">
+        <v>0</v>
+      </c>
+      <c r="E840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A841" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B841" s="1">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="C841" t="s">
+        <v>5</v>
+      </c>
+      <c r="D841">
+        <v>0</v>
+      </c>
+      <c r="E841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A842" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B842" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C842" t="s">
+        <v>5</v>
+      </c>
+      <c r="D842">
+        <v>1</v>
+      </c>
+      <c r="E842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A843" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B843" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C843" t="s">
+        <v>5</v>
+      </c>
+      <c r="D843">
+        <v>1</v>
+      </c>
+      <c r="E843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A844" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B844" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C844" t="s">
+        <v>6</v>
+      </c>
+      <c r="D844">
+        <v>0</v>
+      </c>
+      <c r="E844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A845" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B845" s="1">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="C845" t="s">
+        <v>6</v>
+      </c>
+      <c r="D845">
+        <v>1</v>
+      </c>
+      <c r="E845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A846" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B846" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C846" t="s">
+        <v>6</v>
+      </c>
+      <c r="D846">
+        <v>0</v>
+      </c>
+      <c r="E846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A847" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B847" s="1">
+        <v>0.19236111111111112</v>
+      </c>
+      <c r="C847" t="s">
+        <v>6</v>
+      </c>
+      <c r="D847">
+        <v>0</v>
+      </c>
+      <c r="E847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A848" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B848" s="1">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C848" t="s">
+        <v>6</v>
+      </c>
+      <c r="D848">
+        <v>0</v>
+      </c>
+      <c r="E848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A849" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B849" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C849" t="s">
+        <v>5</v>
+      </c>
+      <c r="D849">
+        <v>1</v>
+      </c>
+      <c r="E849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A850" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B850" s="1">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="C850" t="s">
+        <v>5</v>
+      </c>
+      <c r="D850">
+        <v>0</v>
+      </c>
+      <c r="E850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A851" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B851" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C851" t="s">
+        <v>5</v>
+      </c>
+      <c r="D851">
+        <v>1</v>
+      </c>
+      <c r="E851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A852" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B852" s="1">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="C852" t="s">
+        <v>5</v>
+      </c>
+      <c r="D852">
+        <v>0</v>
+      </c>
+      <c r="E852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A853" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B853" s="1">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="C853" t="s">
+        <v>6</v>
+      </c>
+      <c r="D853">
+        <v>0</v>
+      </c>
+      <c r="E853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A854" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B854" s="1">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="C854" t="s">
+        <v>6</v>
+      </c>
+      <c r="D854">
+        <v>1</v>
+      </c>
+      <c r="E854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A855" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B855" s="1">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="C855" t="s">
+        <v>6</v>
+      </c>
+      <c r="D855">
+        <v>0</v>
+      </c>
+      <c r="E855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A856" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B856" s="1">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="C856" t="s">
+        <v>6</v>
+      </c>
+      <c r="D856">
+        <v>1</v>
+      </c>
+      <c r="E856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A857" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B857" s="1">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="C857" t="s">
+        <v>6</v>
+      </c>
+      <c r="D857">
+        <v>0</v>
+      </c>
+      <c r="E857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A858" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B858" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C858" t="s">
+        <v>5</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A859" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B859" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C859" t="s">
+        <v>5</v>
+      </c>
+      <c r="D859">
+        <v>0</v>
+      </c>
+      <c r="E859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A860" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B860" s="1">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="C860" t="s">
+        <v>5</v>
+      </c>
+      <c r="D860">
+        <v>1</v>
+      </c>
+      <c r="E860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A861" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B861" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C861" t="s">
+        <v>5</v>
+      </c>
+      <c r="D861">
+        <v>1</v>
+      </c>
+      <c r="E861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A862" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B862" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C862" t="s">
+        <v>5</v>
+      </c>
+      <c r="D862">
+        <v>1</v>
+      </c>
+      <c r="E862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A863" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B863" s="1">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="C863" t="s">
+        <v>6</v>
+      </c>
+      <c r="D863">
+        <v>0</v>
+      </c>
+      <c r="E863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A864" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B864" s="1">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="C864" t="s">
+        <v>6</v>
+      </c>
+      <c r="D864">
+        <v>1</v>
+      </c>
+      <c r="E864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A865" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B865" s="1">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="C865" t="s">
+        <v>6</v>
+      </c>
+      <c r="D865">
+        <v>1</v>
+      </c>
+      <c r="E865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A866" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B866" s="1">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C866" t="s">
+        <v>6</v>
+      </c>
+      <c r="D866">
+        <v>0</v>
+      </c>
+      <c r="E866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A867" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B867" s="1">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C867" t="s">
+        <v>6</v>
+      </c>
+      <c r="D867">
+        <v>1</v>
+      </c>
+      <c r="E867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A868" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B868" s="1">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="C868" t="s">
+        <v>6</v>
+      </c>
+      <c r="D868">
+        <v>1</v>
+      </c>
+      <c r="E868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A869" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B869" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C869" t="s">
+        <v>5</v>
+      </c>
+      <c r="D869">
+        <v>0</v>
+      </c>
+      <c r="E869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A870" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B870" s="1">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="C870" t="s">
+        <v>5</v>
+      </c>
+      <c r="D870">
+        <v>1</v>
+      </c>
+      <c r="E870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A871" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B871" s="1">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="C871" t="s">
+        <v>5</v>
+      </c>
+      <c r="D871">
+        <v>1</v>
+      </c>
+      <c r="E871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A872" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B872" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C872" t="s">
+        <v>5</v>
+      </c>
+      <c r="D872">
+        <v>0</v>
+      </c>
+      <c r="E872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A873" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B873" s="1">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="C873" t="s">
+        <v>6</v>
+      </c>
+      <c r="D873">
+        <v>1</v>
+      </c>
+      <c r="E873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A874" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B874" s="1">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="C874" t="s">
+        <v>6</v>
+      </c>
+      <c r="D874">
+        <v>1</v>
+      </c>
+      <c r="E874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A875" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B875" s="1">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="C875" t="s">
+        <v>6</v>
+      </c>
+      <c r="D875">
+        <v>1</v>
+      </c>
+      <c r="E875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A876" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B876" s="1">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C876" t="s">
+        <v>6</v>
+      </c>
+      <c r="D876">
+        <v>0</v>
+      </c>
+      <c r="E876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A877" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B877" s="1">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="C877" t="s">
+        <v>6</v>
+      </c>
+      <c r="D877">
+        <v>1</v>
+      </c>
+      <c r="E877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A878" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B878" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C878" t="s">
+        <v>6</v>
+      </c>
+      <c r="D878">
+        <v>0</v>
+      </c>
+      <c r="E878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A879" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B879" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C879" t="s">
+        <v>5</v>
+      </c>
+      <c r="D879">
+        <v>1</v>
+      </c>
+      <c r="E879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A880" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B880" s="1">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="C880" t="s">
+        <v>5</v>
+      </c>
+      <c r="D880">
+        <v>0</v>
+      </c>
+      <c r="E880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A881" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B881" s="1">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C881" t="s">
+        <v>5</v>
+      </c>
+      <c r="D881">
+        <v>1</v>
+      </c>
+      <c r="E881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A882" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B882" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C882" t="s">
+        <v>5</v>
+      </c>
+      <c r="D882">
+        <v>1</v>
+      </c>
+      <c r="E882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A883" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B883" s="1">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="C883" t="s">
+        <v>5</v>
+      </c>
+      <c r="D883">
+        <v>1</v>
+      </c>
+      <c r="E883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A884" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B884" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C884" t="s">
+        <v>6</v>
+      </c>
+      <c r="D884">
+        <v>1</v>
+      </c>
+      <c r="E884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A885" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B885" s="1">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="C885" t="s">
+        <v>6</v>
+      </c>
+      <c r="D885">
+        <v>0</v>
+      </c>
+      <c r="E885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A886" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B886" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C886" t="s">
+        <v>6</v>
+      </c>
+      <c r="D886">
+        <v>0</v>
+      </c>
+      <c r="E886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A887" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B887" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C887" t="s">
+        <v>6</v>
+      </c>
+      <c r="D887">
+        <v>1</v>
+      </c>
+      <c r="E887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A888" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B888" s="1">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="C888" t="s">
+        <v>5</v>
+      </c>
+      <c r="D888">
+        <v>0</v>
+      </c>
+      <c r="E888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A889" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B889" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C889" t="s">
+        <v>5</v>
+      </c>
+      <c r="D889">
+        <v>0</v>
+      </c>
+      <c r="E889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A890" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B890" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C890" t="s">
+        <v>5</v>
+      </c>
+      <c r="D890">
+        <v>0</v>
+      </c>
+      <c r="E890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A891" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B891" s="1">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="C891" t="s">
+        <v>5</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
+      </c>
+      <c r="E891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A892" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B892" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C892" t="s">
+        <v>6</v>
+      </c>
+      <c r="D892">
+        <v>0</v>
+      </c>
+      <c r="E892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A893" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B893" s="1">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="C893" t="s">
+        <v>6</v>
+      </c>
+      <c r="D893">
+        <v>0</v>
+      </c>
+      <c r="E893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A894" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B894" s="1">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="C894" t="s">
+        <v>6</v>
+      </c>
+      <c r="D894">
+        <v>0</v>
+      </c>
+      <c r="E894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A895" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B895" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C895" t="s">
+        <v>6</v>
+      </c>
+      <c r="D895">
+        <v>0</v>
+      </c>
+      <c r="E895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A896" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B896" s="1">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="C896" t="s">
+        <v>6</v>
+      </c>
+      <c r="D896">
+        <v>0</v>
+      </c>
+      <c r="E896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A897" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B897" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C897" t="s">
+        <v>5</v>
+      </c>
+      <c r="D897">
+        <v>1</v>
+      </c>
+      <c r="E897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A898" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B898" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C898" t="s">
+        <v>5</v>
+      </c>
+      <c r="D898">
+        <v>1</v>
+      </c>
+      <c r="E898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A899" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B899" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C899" t="s">
+        <v>5</v>
+      </c>
+      <c r="D899">
+        <v>1</v>
+      </c>
+      <c r="E899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A900" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B900" s="1">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="C900" t="s">
+        <v>5</v>
+      </c>
+      <c r="D900">
+        <v>1</v>
+      </c>
+      <c r="E900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A901" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B901" s="1">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C901" t="s">
+        <v>5</v>
+      </c>
+      <c r="D901">
+        <v>0</v>
+      </c>
+      <c r="E901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A902" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B902" s="1">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="C902" t="s">
+        <v>5</v>
+      </c>
+      <c r="D902">
+        <v>0</v>
+      </c>
+      <c r="E902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A903" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B903" s="1">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="C903" t="s">
+        <v>5</v>
+      </c>
+      <c r="D903">
+        <v>1</v>
+      </c>
+      <c r="E903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A904" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B904" s="1">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C904" t="s">
+        <v>5</v>
+      </c>
+      <c r="D904">
+        <v>0</v>
+      </c>
+      <c r="E904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A905" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B905" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C905" t="s">
+        <v>6</v>
+      </c>
+      <c r="D905">
+        <v>1</v>
+      </c>
+      <c r="E905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A906" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B906" s="1">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="C906" t="s">
+        <v>6</v>
+      </c>
+      <c r="D906">
+        <v>1</v>
+      </c>
+      <c r="E906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A907" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B907" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C907" t="s">
+        <v>6</v>
+      </c>
+      <c r="D907">
+        <v>0</v>
+      </c>
+      <c r="E907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A908" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B908" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C908" t="s">
+        <v>6</v>
+      </c>
+      <c r="D908">
+        <v>1</v>
+      </c>
+      <c r="E908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A909" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B909" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C909" t="s">
+        <v>5</v>
+      </c>
+      <c r="D909">
+        <v>0</v>
+      </c>
+      <c r="E909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A910" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B910" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C910" t="s">
+        <v>5</v>
+      </c>
+      <c r="D910">
+        <v>0</v>
+      </c>
+      <c r="E910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A911" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B911" s="1">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="C911" t="s">
+        <v>5</v>
+      </c>
+      <c r="D911">
+        <v>1</v>
+      </c>
+      <c r="E911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A912" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B912" s="1">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="C912" t="s">
+        <v>5</v>
+      </c>
+      <c r="D912">
+        <v>1</v>
+      </c>
+      <c r="E912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A913" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B913" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C913" t="s">
+        <v>5</v>
+      </c>
+      <c r="D913">
+        <v>0</v>
+      </c>
+      <c r="E913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B914" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="C914" t="s">
+        <v>6</v>
+      </c>
+      <c r="D914">
+        <v>0</v>
+      </c>
+      <c r="E914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B915" s="1">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="C915" t="s">
+        <v>6</v>
+      </c>
+      <c r="D915">
+        <v>0</v>
+      </c>
+      <c r="E915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A916" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B916" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C916" t="s">
+        <v>6</v>
+      </c>
+      <c r="D916">
+        <v>0</v>
+      </c>
+      <c r="E916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A917" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B917" s="1">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="C917" t="s">
+        <v>6</v>
+      </c>
+      <c r="D917">
+        <v>0</v>
+      </c>
+      <c r="E917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A918" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B918" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="C918" t="s">
+        <v>6</v>
+      </c>
+      <c r="D918">
+        <v>0</v>
+      </c>
+      <c r="E918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A919" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B919" s="1">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="C919" t="s">
+        <v>6</v>
+      </c>
+      <c r="D919">
+        <v>0</v>
+      </c>
+      <c r="E919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A920" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B920" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C920" t="s">
+        <v>6</v>
+      </c>
+      <c r="D920">
+        <v>1</v>
+      </c>
+      <c r="E920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A921" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B921" s="1">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="C921" t="s">
+        <v>5</v>
+      </c>
+      <c r="D921">
+        <v>1</v>
+      </c>
+      <c r="E921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A922" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B922" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C922" t="s">
+        <v>5</v>
+      </c>
+      <c r="D922">
+        <v>0</v>
+      </c>
+      <c r="E922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A923" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B923" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C923" t="s">
+        <v>5</v>
+      </c>
+      <c r="D923">
+        <v>0</v>
+      </c>
+      <c r="E923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A924" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B924" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C924" t="s">
+        <v>5</v>
+      </c>
+      <c r="D924">
+        <v>0</v>
+      </c>
+      <c r="E924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A925" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B925" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C925" t="s">
+        <v>5</v>
+      </c>
+      <c r="D925">
+        <v>1</v>
+      </c>
+      <c r="E925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A926" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B926" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C926" t="s">
+        <v>5</v>
+      </c>
+      <c r="D926">
+        <v>0</v>
+      </c>
+      <c r="E926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A927" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B927" s="1">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="C927" t="s">
+        <v>6</v>
+      </c>
+      <c r="D927">
+        <v>0</v>
+      </c>
+      <c r="E927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A928" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B928" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="C928" t="s">
+        <v>6</v>
+      </c>
+      <c r="D928">
+        <v>0</v>
+      </c>
+      <c r="E928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A929" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B929" s="1">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="C929" t="s">
+        <v>6</v>
+      </c>
+      <c r="D929">
+        <v>0</v>
+      </c>
+      <c r="E929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A930" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B930" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C930" t="s">
+        <v>6</v>
+      </c>
+      <c r="D930">
+        <v>0</v>
+      </c>
+      <c r="E930">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/diapers.xlsx
+++ b/raw_data/diapers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coons/Projects/stink_bean/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6E038-4048-5B44-A547-91B96491095C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ED3152-BFE7-134A-AB14-F201D37F690C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
+    <workbookView xWindow="7340" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E54FF-0E43-8F4B-AA4E-86E123E067B4}">
-  <dimension ref="A1:E930"/>
+  <dimension ref="A1:E1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
-      <selection activeCell="E921" sqref="E921:E930"/>
+    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
+      <selection activeCell="E1052" sqref="E1052:E1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16229,6 +16229,2216 @@
         <v>1</v>
       </c>
     </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A931" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B931" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C931" t="s">
+        <v>5</v>
+      </c>
+      <c r="D931">
+        <v>0</v>
+      </c>
+      <c r="E931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A932" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B932" s="1">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="C932" t="s">
+        <v>5</v>
+      </c>
+      <c r="D932">
+        <v>0</v>
+      </c>
+      <c r="E932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A933" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B933" s="1">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="C933" t="s">
+        <v>5</v>
+      </c>
+      <c r="D933">
+        <v>0</v>
+      </c>
+      <c r="E933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A934" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B934" s="1">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C934" t="s">
+        <v>5</v>
+      </c>
+      <c r="D934">
+        <v>1</v>
+      </c>
+      <c r="E934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A935" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B935" s="1">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="C935" t="s">
+        <v>5</v>
+      </c>
+      <c r="D935">
+        <v>1</v>
+      </c>
+      <c r="E935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A936" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B936" s="1">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="C936" t="s">
+        <v>6</v>
+      </c>
+      <c r="D936">
+        <v>0</v>
+      </c>
+      <c r="E936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A937" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B937" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C937" t="s">
+        <v>6</v>
+      </c>
+      <c r="D937">
+        <v>0</v>
+      </c>
+      <c r="E937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A938" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B938" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C938" t="s">
+        <v>6</v>
+      </c>
+      <c r="D938">
+        <v>0</v>
+      </c>
+      <c r="E938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A939" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B939" s="1">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="C939" t="s">
+        <v>6</v>
+      </c>
+      <c r="D939">
+        <v>0</v>
+      </c>
+      <c r="E939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A940" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B940" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C940" t="s">
+        <v>6</v>
+      </c>
+      <c r="D940">
+        <v>1</v>
+      </c>
+      <c r="E940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A941" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B941" s="1">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C941" t="s">
+        <v>6</v>
+      </c>
+      <c r="D941">
+        <v>0</v>
+      </c>
+      <c r="E941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A942" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B942" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C942" t="s">
+        <v>5</v>
+      </c>
+      <c r="D942">
+        <v>0</v>
+      </c>
+      <c r="E942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A943" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B943" s="1">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="C943" t="s">
+        <v>5</v>
+      </c>
+      <c r="D943">
+        <v>0</v>
+      </c>
+      <c r="E943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A944" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B944" s="1">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="C944" t="s">
+        <v>5</v>
+      </c>
+      <c r="D944">
+        <v>1</v>
+      </c>
+      <c r="E944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A945" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B945" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C945" t="s">
+        <v>5</v>
+      </c>
+      <c r="D945">
+        <v>0</v>
+      </c>
+      <c r="E945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A946" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B946" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C946" t="s">
+        <v>5</v>
+      </c>
+      <c r="D946">
+        <v>1</v>
+      </c>
+      <c r="E946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A947" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B947" s="1">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="C947" t="s">
+        <v>6</v>
+      </c>
+      <c r="D947">
+        <v>0</v>
+      </c>
+      <c r="E947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A948" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B948" s="1">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="C948" t="s">
+        <v>6</v>
+      </c>
+      <c r="D948">
+        <v>0</v>
+      </c>
+      <c r="E948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A949" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B949" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C949" t="s">
+        <v>6</v>
+      </c>
+      <c r="D949">
+        <v>0</v>
+      </c>
+      <c r="E949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A950" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B950" s="1">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C950" t="s">
+        <v>6</v>
+      </c>
+      <c r="D950">
+        <v>0</v>
+      </c>
+      <c r="E950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A951" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B951" s="1">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C951" t="s">
+        <v>6</v>
+      </c>
+      <c r="D951">
+        <v>0</v>
+      </c>
+      <c r="E951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A952" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B952" s="1">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C952" t="s">
+        <v>5</v>
+      </c>
+      <c r="D952">
+        <v>1</v>
+      </c>
+      <c r="E952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A953" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B953" s="1">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="C953" t="s">
+        <v>5</v>
+      </c>
+      <c r="D953">
+        <v>0</v>
+      </c>
+      <c r="E953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A954" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B954" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C954" t="s">
+        <v>5</v>
+      </c>
+      <c r="D954">
+        <v>0</v>
+      </c>
+      <c r="E954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A955" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B955" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C955" t="s">
+        <v>5</v>
+      </c>
+      <c r="D955">
+        <v>0</v>
+      </c>
+      <c r="E955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A956" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B956" s="1">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C956" t="s">
+        <v>5</v>
+      </c>
+      <c r="D956">
+        <v>1</v>
+      </c>
+      <c r="E956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A957" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B957" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C957" t="s">
+        <v>6</v>
+      </c>
+      <c r="D957">
+        <v>0</v>
+      </c>
+      <c r="E957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A958" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B958" s="1">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="C958" t="s">
+        <v>6</v>
+      </c>
+      <c r="D958">
+        <v>0</v>
+      </c>
+      <c r="E958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A959" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B959" s="1">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="C959" t="s">
+        <v>6</v>
+      </c>
+      <c r="D959">
+        <v>0</v>
+      </c>
+      <c r="E959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A960" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B960" s="1">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C960" t="s">
+        <v>6</v>
+      </c>
+      <c r="D960">
+        <v>0</v>
+      </c>
+      <c r="E960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A961" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B961" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C961" t="s">
+        <v>5</v>
+      </c>
+      <c r="D961">
+        <v>0</v>
+      </c>
+      <c r="E961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A962" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B962" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C962" t="s">
+        <v>5</v>
+      </c>
+      <c r="D962">
+        <v>1</v>
+      </c>
+      <c r="E962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A963" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B963" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C963" t="s">
+        <v>5</v>
+      </c>
+      <c r="D963">
+        <v>1</v>
+      </c>
+      <c r="E963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A964" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B964" s="1">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C964" t="s">
+        <v>5</v>
+      </c>
+      <c r="D964">
+        <v>0</v>
+      </c>
+      <c r="E964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A965" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B965" s="1">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="C965" t="s">
+        <v>5</v>
+      </c>
+      <c r="D965">
+        <v>1</v>
+      </c>
+      <c r="E965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A966" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B966" s="1">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="C966" t="s">
+        <v>5</v>
+      </c>
+      <c r="D966">
+        <v>0</v>
+      </c>
+      <c r="E966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A967" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B967" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C967" t="s">
+        <v>6</v>
+      </c>
+      <c r="D967">
+        <v>0</v>
+      </c>
+      <c r="E967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A968" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B968" s="1">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="C968" t="s">
+        <v>6</v>
+      </c>
+      <c r="D968">
+        <v>0</v>
+      </c>
+      <c r="E968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A969" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B969" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C969" t="s">
+        <v>6</v>
+      </c>
+      <c r="D969">
+        <v>0</v>
+      </c>
+      <c r="E969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A970" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B970" s="1">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="C970" t="s">
+        <v>6</v>
+      </c>
+      <c r="D970">
+        <v>0</v>
+      </c>
+      <c r="E970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A971" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B971" s="1">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="C971" t="s">
+        <v>6</v>
+      </c>
+      <c r="D971">
+        <v>0</v>
+      </c>
+      <c r="E971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A972" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B972" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C972" t="s">
+        <v>5</v>
+      </c>
+      <c r="D972">
+        <v>0</v>
+      </c>
+      <c r="E972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A973" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B973" s="1">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C973" t="s">
+        <v>5</v>
+      </c>
+      <c r="D973">
+        <v>0</v>
+      </c>
+      <c r="E973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A974" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B974" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C974" t="s">
+        <v>5</v>
+      </c>
+      <c r="D974">
+        <v>0</v>
+      </c>
+      <c r="E974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A975" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B975" s="1">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="C975" t="s">
+        <v>5</v>
+      </c>
+      <c r="D975">
+        <v>0</v>
+      </c>
+      <c r="E975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A976" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B976" s="1">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C976" t="s">
+        <v>6</v>
+      </c>
+      <c r="D976">
+        <v>1</v>
+      </c>
+      <c r="E976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A977" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B977" s="1">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="C977" t="s">
+        <v>6</v>
+      </c>
+      <c r="D977">
+        <v>0</v>
+      </c>
+      <c r="E977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A978" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B978" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C978" t="s">
+        <v>6</v>
+      </c>
+      <c r="D978">
+        <v>0</v>
+      </c>
+      <c r="E978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A979" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B979" s="1">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="C979" t="s">
+        <v>6</v>
+      </c>
+      <c r="D979">
+        <v>0</v>
+      </c>
+      <c r="E979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A980" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B980" s="1">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="C980" t="s">
+        <v>5</v>
+      </c>
+      <c r="D980">
+        <v>1</v>
+      </c>
+      <c r="E980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A981" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B981" s="1">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="C981" t="s">
+        <v>5</v>
+      </c>
+      <c r="D981">
+        <v>1</v>
+      </c>
+      <c r="E981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A982" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B982" s="1">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="C982" t="s">
+        <v>5</v>
+      </c>
+      <c r="D982">
+        <v>0</v>
+      </c>
+      <c r="E982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A983" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B983" s="1">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="C983" t="s">
+        <v>5</v>
+      </c>
+      <c r="D983">
+        <v>1</v>
+      </c>
+      <c r="E983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A984" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B984" s="1">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="C984" t="s">
+        <v>5</v>
+      </c>
+      <c r="D984">
+        <v>1</v>
+      </c>
+      <c r="E984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A985" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B985" s="1">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="C985" t="s">
+        <v>6</v>
+      </c>
+      <c r="D985">
+        <v>0</v>
+      </c>
+      <c r="E985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A986" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B986" s="1">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="C986" t="s">
+        <v>6</v>
+      </c>
+      <c r="D986">
+        <v>0</v>
+      </c>
+      <c r="E986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A987" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B987" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C987" t="s">
+        <v>6</v>
+      </c>
+      <c r="D987">
+        <v>0</v>
+      </c>
+      <c r="E987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B988" s="1">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C988" t="s">
+        <v>6</v>
+      </c>
+      <c r="D988">
+        <v>0</v>
+      </c>
+      <c r="E988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B989" s="1">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C989" t="s">
+        <v>6</v>
+      </c>
+      <c r="D989">
+        <v>0</v>
+      </c>
+      <c r="E989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A990" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B990" s="1">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="C990" t="s">
+        <v>5</v>
+      </c>
+      <c r="D990">
+        <v>0</v>
+      </c>
+      <c r="E990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A991" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B991" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C991" t="s">
+        <v>5</v>
+      </c>
+      <c r="D991">
+        <v>1</v>
+      </c>
+      <c r="E991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A992" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B992" s="1">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C992" t="s">
+        <v>5</v>
+      </c>
+      <c r="D992">
+        <v>0</v>
+      </c>
+      <c r="E992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B993" s="1">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="C993" t="s">
+        <v>6</v>
+      </c>
+      <c r="D993">
+        <v>0</v>
+      </c>
+      <c r="E993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B994" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C994" t="s">
+        <v>6</v>
+      </c>
+      <c r="D994">
+        <v>0</v>
+      </c>
+      <c r="E994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A995" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B995" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="C995" t="s">
+        <v>6</v>
+      </c>
+      <c r="D995">
+        <v>0</v>
+      </c>
+      <c r="E995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A996" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B996" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C996" t="s">
+        <v>6</v>
+      </c>
+      <c r="D996">
+        <v>0</v>
+      </c>
+      <c r="E996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B997" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C997" t="s">
+        <v>5</v>
+      </c>
+      <c r="D997">
+        <v>0</v>
+      </c>
+      <c r="E997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A998" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B998" s="1">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="C998" t="s">
+        <v>5</v>
+      </c>
+      <c r="D998">
+        <v>0</v>
+      </c>
+      <c r="E998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A999" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B999" s="1">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="C999" t="s">
+        <v>5</v>
+      </c>
+      <c r="D999">
+        <v>1</v>
+      </c>
+      <c r="E999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1000" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1000">
+        <v>0</v>
+      </c>
+      <c r="E1000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1001" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1001">
+        <v>0</v>
+      </c>
+      <c r="E1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1002" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1002">
+        <v>0</v>
+      </c>
+      <c r="E1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1003" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1003">
+        <v>0</v>
+      </c>
+      <c r="E1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1004" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1004">
+        <v>0</v>
+      </c>
+      <c r="E1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1005" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B1005" s="1">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1005">
+        <v>0</v>
+      </c>
+      <c r="E1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1006" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1006">
+        <v>0</v>
+      </c>
+      <c r="E1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1007" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1007">
+        <v>0</v>
+      </c>
+      <c r="E1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1008" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1008">
+        <v>0</v>
+      </c>
+      <c r="E1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1009" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1009">
+        <v>1</v>
+      </c>
+      <c r="E1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1010" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1010">
+        <v>0</v>
+      </c>
+      <c r="E1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1011" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1011">
+        <v>0</v>
+      </c>
+      <c r="E1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1012" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1012">
+        <v>1</v>
+      </c>
+      <c r="E1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1013" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1013" s="1">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1013">
+        <v>0</v>
+      </c>
+      <c r="E1013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1014" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1014" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1014">
+        <v>0</v>
+      </c>
+      <c r="E1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1015" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1015">
+        <v>1</v>
+      </c>
+      <c r="E1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1016" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1016" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1016">
+        <v>0</v>
+      </c>
+      <c r="E1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1017" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1017" s="1">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1017">
+        <v>0</v>
+      </c>
+      <c r="E1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1018" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1018" s="1">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1018">
+        <v>1</v>
+      </c>
+      <c r="E1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1019" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1019" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1019">
+        <v>0</v>
+      </c>
+      <c r="E1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1020" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1020" s="1">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1020">
+        <v>0</v>
+      </c>
+      <c r="E1020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1021" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1021" s="1">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1021">
+        <v>1</v>
+      </c>
+      <c r="E1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1022" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1022">
+        <v>0</v>
+      </c>
+      <c r="E1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1023" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1023">
+        <v>0</v>
+      </c>
+      <c r="E1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1024" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1024">
+        <v>0</v>
+      </c>
+      <c r="E1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1025" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1025">
+        <v>0</v>
+      </c>
+      <c r="E1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1026" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1026">
+        <v>0</v>
+      </c>
+      <c r="E1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1027" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1027">
+        <v>1</v>
+      </c>
+      <c r="E1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1028" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1028">
+        <v>0</v>
+      </c>
+      <c r="E1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1029" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1029">
+        <v>0</v>
+      </c>
+      <c r="E1029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1030" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1030">
+        <v>0</v>
+      </c>
+      <c r="E1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1031" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1031">
+        <v>0</v>
+      </c>
+      <c r="E1031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1032" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1032">
+        <v>0</v>
+      </c>
+      <c r="E1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1033" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1033">
+        <v>1</v>
+      </c>
+      <c r="E1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1034" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1034">
+        <v>1</v>
+      </c>
+      <c r="E1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1035" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1035">
+        <v>0</v>
+      </c>
+      <c r="E1035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1036" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1036">
+        <v>1</v>
+      </c>
+      <c r="E1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1037" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1037">
+        <v>0</v>
+      </c>
+      <c r="E1037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1038" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B1038" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1038">
+        <v>0</v>
+      </c>
+      <c r="E1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1039" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B1039" s="1">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1039">
+        <v>0</v>
+      </c>
+      <c r="E1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1040" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B1040" s="1">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1040">
+        <v>0</v>
+      </c>
+      <c r="E1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1041" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B1041" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1041">
+        <v>1</v>
+      </c>
+      <c r="E1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1042" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B1042" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1042">
+        <v>0</v>
+      </c>
+      <c r="E1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1043" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B1043" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1043">
+        <v>0</v>
+      </c>
+      <c r="E1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1044" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B1044" s="1">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1044">
+        <v>0</v>
+      </c>
+      <c r="E1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1045" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1045" s="1">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1045">
+        <v>0</v>
+      </c>
+      <c r="E1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1046" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1046" s="1">
+        <v>0.23402777777777781</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1046">
+        <v>0</v>
+      </c>
+      <c r="E1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1047" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1047" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1047">
+        <v>1</v>
+      </c>
+      <c r="E1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1048" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1048" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1048">
+        <v>0</v>
+      </c>
+      <c r="E1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1049" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1049" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1049">
+        <v>0</v>
+      </c>
+      <c r="E1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1050" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1050" s="1">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1050">
+        <v>0</v>
+      </c>
+      <c r="E1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1051" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1051" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1051">
+        <v>0</v>
+      </c>
+      <c r="E1051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1052" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1052" s="1">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1052">
+        <v>0</v>
+      </c>
+      <c r="E1052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1053" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1053" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1053">
+        <v>0</v>
+      </c>
+      <c r="E1053">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1054" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1054" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1054">
+        <v>0</v>
+      </c>
+      <c r="E1054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1055" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1055" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1055">
+        <v>1</v>
+      </c>
+      <c r="E1055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1056" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1056" s="1">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1056">
+        <v>0</v>
+      </c>
+      <c r="E1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1057" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1057" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1057">
+        <v>1</v>
+      </c>
+      <c r="E1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1058" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1058" s="1">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1058">
+        <v>0</v>
+      </c>
+      <c r="E1058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1059" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1059" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1059">
+        <v>0</v>
+      </c>
+      <c r="E1059">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1060" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1060" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1060">
+        <v>0</v>
+      </c>
+      <c r="E1060">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/diapers.xlsx
+++ b/raw_data/diapers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coons/Projects/stink_bean/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ED3152-BFE7-134A-AB14-F201D37F690C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FFFFF1-7E3E-6943-BEED-49771DB6E6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
+    <workbookView xWindow="18280" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E54FF-0E43-8F4B-AA4E-86E123E067B4}">
-  <dimension ref="A1:E1060"/>
+  <dimension ref="A1:E1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
-      <selection activeCell="E1052" sqref="E1052:E1060"/>
+    <sheetView tabSelected="1" topLeftCell="A1113" workbookViewId="0">
+      <selection activeCell="E1134" sqref="E1134:E1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18439,6 +18439,1400 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1061" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1061" s="1">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1061">
+        <v>0</v>
+      </c>
+      <c r="E1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1062" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1062" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1062">
+        <v>1</v>
+      </c>
+      <c r="E1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1063" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1063" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1063">
+        <v>0</v>
+      </c>
+      <c r="E1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1064" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1064" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1064">
+        <v>0</v>
+      </c>
+      <c r="E1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1065" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1065" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1065">
+        <v>0</v>
+      </c>
+      <c r="E1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1066" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1066" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1066">
+        <v>0</v>
+      </c>
+      <c r="E1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1067" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1067" s="1">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1067">
+        <v>0</v>
+      </c>
+      <c r="E1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1068" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1068" s="1">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1068">
+        <v>0</v>
+      </c>
+      <c r="E1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1069" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1069" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1069">
+        <v>0</v>
+      </c>
+      <c r="E1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1070" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1070" s="1">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1070">
+        <v>0</v>
+      </c>
+      <c r="E1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1071" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B1071" s="1">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1071">
+        <v>0</v>
+      </c>
+      <c r="E1071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1072" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B1072" s="1">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1072">
+        <v>1</v>
+      </c>
+      <c r="E1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1073" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B1073" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1073">
+        <v>0</v>
+      </c>
+      <c r="E1073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1074" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B1074" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1074">
+        <v>0</v>
+      </c>
+      <c r="E1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1075" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B1075" s="1">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1075">
+        <v>1</v>
+      </c>
+      <c r="E1075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1076" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B1076" s="1">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1076">
+        <v>0</v>
+      </c>
+      <c r="E1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1077" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B1077" s="1">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1077">
+        <v>0</v>
+      </c>
+      <c r="E1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1078" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B1078" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1078">
+        <v>0</v>
+      </c>
+      <c r="E1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1079" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B1079" s="1">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1079">
+        <v>0</v>
+      </c>
+      <c r="E1079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1080" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B1080" s="1">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1080">
+        <v>0</v>
+      </c>
+      <c r="E1080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1081" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B1081" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1081">
+        <v>1</v>
+      </c>
+      <c r="E1081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1082" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B1082" s="1">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1082">
+        <v>0</v>
+      </c>
+      <c r="E1082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1083" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B1083" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1083">
+        <v>0</v>
+      </c>
+      <c r="E1083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1084" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B1084" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1084">
+        <v>0</v>
+      </c>
+      <c r="E1084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1085" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B1085" s="1">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1085">
+        <v>0</v>
+      </c>
+      <c r="E1085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1086" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B1086" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1086">
+        <v>0</v>
+      </c>
+      <c r="E1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1087" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B1087" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1087">
+        <v>1</v>
+      </c>
+      <c r="E1087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1088" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B1088" s="1">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1088">
+        <v>0</v>
+      </c>
+      <c r="E1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1089" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B1089" s="1">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1089">
+        <v>1</v>
+      </c>
+      <c r="E1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1090" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B1090" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1090">
+        <v>1</v>
+      </c>
+      <c r="E1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1091" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B1091" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1091">
+        <v>0</v>
+      </c>
+      <c r="E1091">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1092" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B1092" s="1">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1092">
+        <v>0</v>
+      </c>
+      <c r="E1092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1093" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B1093" s="1">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1093">
+        <v>0</v>
+      </c>
+      <c r="E1093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1094" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B1094" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1094">
+        <v>0</v>
+      </c>
+      <c r="E1094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1095" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B1095" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1095">
+        <v>1</v>
+      </c>
+      <c r="E1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1096" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B1096" s="1">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1096">
+        <v>1</v>
+      </c>
+      <c r="E1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1097" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B1097" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1097">
+        <v>0</v>
+      </c>
+      <c r="E1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1098" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B1098" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1098">
+        <v>0</v>
+      </c>
+      <c r="E1098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1099" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B1099" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1099">
+        <v>0</v>
+      </c>
+      <c r="E1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1100" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B1100" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1100">
+        <v>0</v>
+      </c>
+      <c r="E1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1101" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1101" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1101">
+        <v>0</v>
+      </c>
+      <c r="E1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1102" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1102" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1102">
+        <v>0</v>
+      </c>
+      <c r="E1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1103" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1103" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1103">
+        <v>0</v>
+      </c>
+      <c r="E1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1104" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1104" s="1">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1104">
+        <v>1</v>
+      </c>
+      <c r="E1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1105" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1105" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1105">
+        <v>1</v>
+      </c>
+      <c r="E1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1106" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1106" s="1">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1106">
+        <v>0</v>
+      </c>
+      <c r="E1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1107" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1107" s="1">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1107">
+        <v>0</v>
+      </c>
+      <c r="E1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1108" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1108" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1108">
+        <v>0</v>
+      </c>
+      <c r="E1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1109" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1109" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1109">
+        <v>0</v>
+      </c>
+      <c r="E1109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1110" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1110" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1110">
+        <v>1</v>
+      </c>
+      <c r="E1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1111" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1111" s="1">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1111">
+        <v>1</v>
+      </c>
+      <c r="E1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1112" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1112" s="1">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1112">
+        <v>0</v>
+      </c>
+      <c r="E1112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1113" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1113" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1113">
+        <v>0</v>
+      </c>
+      <c r="E1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1114" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1114" s="1">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1114">
+        <v>1</v>
+      </c>
+      <c r="E1114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1115" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1115" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1115">
+        <v>0</v>
+      </c>
+      <c r="E1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1116" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1116" s="1">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1116">
+        <v>0</v>
+      </c>
+      <c r="E1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1117" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1117" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1117">
+        <v>0</v>
+      </c>
+      <c r="E1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1118" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1118" s="1">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1118">
+        <v>1</v>
+      </c>
+      <c r="E1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1119" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1119" s="1">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1119">
+        <v>0</v>
+      </c>
+      <c r="E1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1120" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1120" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1120">
+        <v>1</v>
+      </c>
+      <c r="E1120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1121" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1121" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1121">
+        <v>0</v>
+      </c>
+      <c r="E1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1122" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1122" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1122">
+        <v>0</v>
+      </c>
+      <c r="E1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1123" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1123" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1123">
+        <v>0</v>
+      </c>
+      <c r="E1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1124" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1124" s="1">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1124">
+        <v>0</v>
+      </c>
+      <c r="E1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1125" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1125" s="1">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1125">
+        <v>0</v>
+      </c>
+      <c r="E1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1126" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1126" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1126">
+        <v>0</v>
+      </c>
+      <c r="E1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1127" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1127" s="1">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1127">
+        <v>1</v>
+      </c>
+      <c r="E1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1128" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1128" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1128">
+        <v>0</v>
+      </c>
+      <c r="E1128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1129" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1129" s="1">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1129">
+        <v>0</v>
+      </c>
+      <c r="E1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1130" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1130" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1130">
+        <v>0</v>
+      </c>
+      <c r="E1130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1131" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1131" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1131">
+        <v>0</v>
+      </c>
+      <c r="E1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1132" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1132" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1132">
+        <v>0</v>
+      </c>
+      <c r="E1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1133" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1133" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1133">
+        <v>0</v>
+      </c>
+      <c r="E1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1134" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1134" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1134">
+        <v>0</v>
+      </c>
+      <c r="E1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1135" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B1135" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1135">
+        <v>0</v>
+      </c>
+      <c r="E1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1136" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B1136" s="1">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1136">
+        <v>0</v>
+      </c>
+      <c r="E1136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1137" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B1137" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1137">
+        <v>1</v>
+      </c>
+      <c r="E1137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1138" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B1138" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1138">
+        <v>0</v>
+      </c>
+      <c r="E1138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1139" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B1139" s="1">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1139">
+        <v>0</v>
+      </c>
+      <c r="E1139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1140" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B1140" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1140">
+        <v>0</v>
+      </c>
+      <c r="E1140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1141" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B1141" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1141">
+        <v>0</v>
+      </c>
+      <c r="E1141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1142" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B1142" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1142">
+        <v>0</v>
+      </c>
+      <c r="E1142">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/diapers.xlsx
+++ b/raw_data/diapers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coons/Projects/stink_bean/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FFFFF1-7E3E-6943-BEED-49771DB6E6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491DC4F2-F565-3448-A3C8-6F0CED3ED650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18280" yWindow="460" windowWidth="19600" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
+    <workbookView xWindow="7240" yWindow="2060" windowWidth="11860" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E54FF-0E43-8F4B-AA4E-86E123E067B4}">
-  <dimension ref="A1:E1142"/>
+  <dimension ref="A1:E1317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1113" workbookViewId="0">
-      <selection activeCell="E1134" sqref="E1134:E1142"/>
+    <sheetView tabSelected="1" topLeftCell="A1290" workbookViewId="0">
+      <selection activeCell="E1312" sqref="E1312:E1317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19833,6 +19833,2981 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1143" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B1143" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1143">
+        <v>1</v>
+      </c>
+      <c r="E1143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1144" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B1144" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1144">
+        <v>0</v>
+      </c>
+      <c r="E1144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1145" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B1145" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1145">
+        <v>0</v>
+      </c>
+      <c r="E1145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1146" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B1146" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1146">
+        <v>0</v>
+      </c>
+      <c r="E1146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1147" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B1147" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1147">
+        <v>0</v>
+      </c>
+      <c r="E1147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1148" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B1148" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1148">
+        <v>0</v>
+      </c>
+      <c r="E1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1149" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B1149" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1149">
+        <v>1</v>
+      </c>
+      <c r="E1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1150" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B1150" s="1">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1150">
+        <v>0</v>
+      </c>
+      <c r="E1150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1151" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B1151" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1151">
+        <v>0</v>
+      </c>
+      <c r="E1151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1152" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B1152" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1152">
+        <v>0</v>
+      </c>
+      <c r="E1152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1153" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B1153" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1153">
+        <v>0</v>
+      </c>
+      <c r="E1153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1154" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B1154" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1154">
+        <v>0</v>
+      </c>
+      <c r="E1154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1155" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1155" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1155">
+        <v>0</v>
+      </c>
+      <c r="E1155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1156" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1156" s="1">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1156">
+        <v>0</v>
+      </c>
+      <c r="E1156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1157" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1157" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1157">
+        <v>1</v>
+      </c>
+      <c r="E1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1158" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1158" s="1">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1158">
+        <v>1</v>
+      </c>
+      <c r="E1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1159" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1159" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1159">
+        <v>0</v>
+      </c>
+      <c r="E1159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1160" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1160" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1160">
+        <v>0</v>
+      </c>
+      <c r="E1160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1161" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1161" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1161">
+        <v>0</v>
+      </c>
+      <c r="E1161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1162" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1162" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1162">
+        <v>0</v>
+      </c>
+      <c r="E1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1163" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1163" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1163">
+        <v>0</v>
+      </c>
+      <c r="E1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1164" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1164" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1164">
+        <v>0</v>
+      </c>
+      <c r="E1164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1165" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1165" s="1">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1165">
+        <v>1</v>
+      </c>
+      <c r="E1165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1166" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1166">
+        <v>0</v>
+      </c>
+      <c r="E1166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1167" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1167" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1167">
+        <v>0</v>
+      </c>
+      <c r="E1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1168" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1168" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1168">
+        <v>0</v>
+      </c>
+      <c r="E1168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1169" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1169" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1169">
+        <v>0</v>
+      </c>
+      <c r="E1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1170" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1170" s="1">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1170">
+        <v>0</v>
+      </c>
+      <c r="E1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1171" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1171" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1171">
+        <v>0</v>
+      </c>
+      <c r="E1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1172" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1172" s="1">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1172">
+        <v>0</v>
+      </c>
+      <c r="E1172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1173" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1173" s="1">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1173">
+        <v>0</v>
+      </c>
+      <c r="E1173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1174" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1174" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1174">
+        <v>1</v>
+      </c>
+      <c r="E1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1175" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1175" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1175">
+        <v>1</v>
+      </c>
+      <c r="E1175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1176" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1176" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1176">
+        <v>0</v>
+      </c>
+      <c r="E1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1177" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1177" s="1">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1177">
+        <v>0</v>
+      </c>
+      <c r="E1177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1178" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1178" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1178">
+        <v>0</v>
+      </c>
+      <c r="E1178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1179" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1179" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1179">
+        <v>0</v>
+      </c>
+      <c r="E1179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1180" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1180" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1180">
+        <v>0</v>
+      </c>
+      <c r="E1180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1181" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1181">
+        <v>0</v>
+      </c>
+      <c r="E1181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1182" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1182" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1182">
+        <v>0</v>
+      </c>
+      <c r="E1182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1183" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1183">
+        <v>1</v>
+      </c>
+      <c r="E1183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1184" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1184">
+        <v>0</v>
+      </c>
+      <c r="E1184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1185" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1185" s="1">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1185">
+        <v>0</v>
+      </c>
+      <c r="E1185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1186" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1186" s="1">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1186">
+        <v>0</v>
+      </c>
+      <c r="E1186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1187" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1187" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1187">
+        <v>0</v>
+      </c>
+      <c r="E1187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1188" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1188" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1188">
+        <v>0</v>
+      </c>
+      <c r="E1188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1189" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B1189" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1189">
+        <v>0</v>
+      </c>
+      <c r="E1189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1190" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B1190" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1190">
+        <v>0</v>
+      </c>
+      <c r="E1190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1191" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B1191" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1191">
+        <v>0</v>
+      </c>
+      <c r="E1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1192" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B1192" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1192">
+        <v>1</v>
+      </c>
+      <c r="E1192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1193" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B1193" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1193">
+        <v>0</v>
+      </c>
+      <c r="E1193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1194" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B1194" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1194">
+        <v>0</v>
+      </c>
+      <c r="E1194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1195" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B1195" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1195">
+        <v>0</v>
+      </c>
+      <c r="E1195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1196" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B1196" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1196">
+        <v>0</v>
+      </c>
+      <c r="E1196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1197" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1197">
+        <v>1</v>
+      </c>
+      <c r="E1197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1198" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B1198" s="1">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1198">
+        <v>1</v>
+      </c>
+      <c r="E1198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1199" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B1199" s="1">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1199">
+        <v>0</v>
+      </c>
+      <c r="E1199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1200" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B1200" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1200">
+        <v>1</v>
+      </c>
+      <c r="E1200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1201" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1201" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1201">
+        <v>0</v>
+      </c>
+      <c r="E1201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1202" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1202" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1202">
+        <v>1</v>
+      </c>
+      <c r="E1202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1203" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1203" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1203">
+        <v>0</v>
+      </c>
+      <c r="E1203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1204" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1204" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1204">
+        <v>1</v>
+      </c>
+      <c r="E1204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1205" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1205" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1205">
+        <v>1</v>
+      </c>
+      <c r="E1205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1206" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1206" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1206">
+        <v>0</v>
+      </c>
+      <c r="E1206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1207" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1207" s="1">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1207">
+        <v>0</v>
+      </c>
+      <c r="E1207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1208" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1208" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1208">
+        <v>0</v>
+      </c>
+      <c r="E1208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1209" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1209" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1209">
+        <v>0</v>
+      </c>
+      <c r="E1209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1210" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1210" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1210">
+        <v>1</v>
+      </c>
+      <c r="E1210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1211" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1211" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1211">
+        <v>0</v>
+      </c>
+      <c r="E1211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1212" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1212" s="1">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1212">
+        <v>0</v>
+      </c>
+      <c r="E1212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1213" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1213" s="1">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1213">
+        <v>0</v>
+      </c>
+      <c r="E1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1214" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1214" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1214">
+        <v>0</v>
+      </c>
+      <c r="E1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1215" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1215">
+        <v>0</v>
+      </c>
+      <c r="E1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1216" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1216">
+        <v>0</v>
+      </c>
+      <c r="E1216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1217" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1217">
+        <v>0</v>
+      </c>
+      <c r="E1217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1218" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1218">
+        <v>0</v>
+      </c>
+      <c r="E1218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1219" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1219">
+        <v>1</v>
+      </c>
+      <c r="E1219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1220" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1220">
+        <v>0</v>
+      </c>
+      <c r="E1220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1221" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1221">
+        <v>0</v>
+      </c>
+      <c r="E1221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1222" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1222">
+        <v>0</v>
+      </c>
+      <c r="E1222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1223" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B1223" s="1">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1223">
+        <v>0</v>
+      </c>
+      <c r="E1223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1224" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B1224" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1224">
+        <v>0</v>
+      </c>
+      <c r="E1224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1225" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B1225" s="1">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1225">
+        <v>0</v>
+      </c>
+      <c r="E1225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1226" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1226" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1226">
+        <v>0</v>
+      </c>
+      <c r="E1226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1227" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1227" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1227">
+        <v>0</v>
+      </c>
+      <c r="E1227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1228" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1228" s="1">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1228">
+        <v>1</v>
+      </c>
+      <c r="E1228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1229" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1229" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1229">
+        <v>1</v>
+      </c>
+      <c r="E1229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1230" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1230" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1230">
+        <v>0</v>
+      </c>
+      <c r="E1230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1231" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1231">
+        <v>0</v>
+      </c>
+      <c r="E1231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1232" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1232">
+        <v>0</v>
+      </c>
+      <c r="E1232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1233" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1233">
+        <v>0</v>
+      </c>
+      <c r="E1233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1234" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1234">
+        <v>1</v>
+      </c>
+      <c r="E1234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1235" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1235">
+        <v>0</v>
+      </c>
+      <c r="E1235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1236" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1236">
+        <v>0</v>
+      </c>
+      <c r="E1236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1237" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1237">
+        <v>0</v>
+      </c>
+      <c r="E1237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1238" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1238">
+        <v>0</v>
+      </c>
+      <c r="E1238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1239" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1239">
+        <v>0</v>
+      </c>
+      <c r="E1239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1240" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1240">
+        <v>1</v>
+      </c>
+      <c r="E1240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1241" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1241">
+        <v>0</v>
+      </c>
+      <c r="E1241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1242" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1242">
+        <v>0</v>
+      </c>
+      <c r="E1242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1243" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1243">
+        <v>0</v>
+      </c>
+      <c r="E1243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1244" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1244">
+        <v>0</v>
+      </c>
+      <c r="E1244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1245" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1245">
+        <v>0</v>
+      </c>
+      <c r="E1245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1246" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1246">
+        <v>0</v>
+      </c>
+      <c r="E1246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1247" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1247">
+        <v>1</v>
+      </c>
+      <c r="E1247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1248" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1248">
+        <v>0</v>
+      </c>
+      <c r="E1248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1249" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1249">
+        <v>0</v>
+      </c>
+      <c r="E1249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1250" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1250">
+        <v>0</v>
+      </c>
+      <c r="E1250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1251" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1251">
+        <v>0</v>
+      </c>
+      <c r="E1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1252" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1252">
+        <v>0</v>
+      </c>
+      <c r="E1252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1253" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1253">
+        <v>0</v>
+      </c>
+      <c r="E1253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1254" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1254">
+        <v>0</v>
+      </c>
+      <c r="E1254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1255" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1255">
+        <v>0</v>
+      </c>
+      <c r="E1255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1256" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1256">
+        <v>0</v>
+      </c>
+      <c r="E1256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1257" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1257">
+        <v>1</v>
+      </c>
+      <c r="E1257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1258" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1258">
+        <v>0</v>
+      </c>
+      <c r="E1258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1259" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1259">
+        <v>0</v>
+      </c>
+      <c r="E1259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1260" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1260">
+        <v>0</v>
+      </c>
+      <c r="E1260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1261" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1261">
+        <v>0</v>
+      </c>
+      <c r="E1261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1262" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1262">
+        <v>1</v>
+      </c>
+      <c r="E1262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1263" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1263">
+        <v>0</v>
+      </c>
+      <c r="E1263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1264" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1264">
+        <v>0</v>
+      </c>
+      <c r="E1264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1265" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1265">
+        <v>0</v>
+      </c>
+      <c r="E1265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1266" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1266">
+        <v>0</v>
+      </c>
+      <c r="E1266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1267" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>0.1125</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1267">
+        <v>0</v>
+      </c>
+      <c r="E1267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1268" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1268">
+        <v>0</v>
+      </c>
+      <c r="E1268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1269" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1269">
+        <v>0</v>
+      </c>
+      <c r="E1269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1270" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1270">
+        <v>1</v>
+      </c>
+      <c r="E1270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1271" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1271">
+        <v>0</v>
+      </c>
+      <c r="E1271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1272" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1272">
+        <v>0</v>
+      </c>
+      <c r="E1272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1273" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1273">
+        <v>0</v>
+      </c>
+      <c r="E1273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1274" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1274">
+        <v>0</v>
+      </c>
+      <c r="E1274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1275" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1275">
+        <v>0</v>
+      </c>
+      <c r="E1275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1276" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1276">
+        <v>0</v>
+      </c>
+      <c r="E1276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1277" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1277">
+        <v>1</v>
+      </c>
+      <c r="E1277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1278" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1278">
+        <v>0</v>
+      </c>
+      <c r="E1278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1279" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1279">
+        <v>0</v>
+      </c>
+      <c r="E1279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1280" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1280">
+        <v>0</v>
+      </c>
+      <c r="E1280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1281" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1281">
+        <v>0</v>
+      </c>
+      <c r="E1281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1282" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1282">
+        <v>0</v>
+      </c>
+      <c r="E1282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1283" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1283">
+        <v>0</v>
+      </c>
+      <c r="E1283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1284" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1284">
+        <v>0</v>
+      </c>
+      <c r="E1284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1285" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1285">
+        <v>0</v>
+      </c>
+      <c r="E1285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1286" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1286">
+        <v>0</v>
+      </c>
+      <c r="E1286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1287" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1287">
+        <v>0</v>
+      </c>
+      <c r="E1287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1288" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B1288" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1288">
+        <v>0</v>
+      </c>
+      <c r="E1288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1289" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B1289" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1289">
+        <v>0</v>
+      </c>
+      <c r="E1289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1290" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1290">
+        <v>0</v>
+      </c>
+      <c r="E1290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1291" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1291" s="1">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1291">
+        <v>0</v>
+      </c>
+      <c r="E1291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1292" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1292" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1292">
+        <v>0</v>
+      </c>
+      <c r="E1292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1293" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1293" s="1">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1293">
+        <v>0</v>
+      </c>
+      <c r="E1293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1294" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1294" s="1">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1294">
+        <v>0</v>
+      </c>
+      <c r="E1294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1295" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1295" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1295">
+        <v>0</v>
+      </c>
+      <c r="E1295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1296" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1296" s="1">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1296">
+        <v>0</v>
+      </c>
+      <c r="E1296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1297" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1297" s="1">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1297">
+        <v>0</v>
+      </c>
+      <c r="E1297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1298" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B1298" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1298">
+        <v>0</v>
+      </c>
+      <c r="E1298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1299" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B1299" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1299">
+        <v>0</v>
+      </c>
+      <c r="E1299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1300" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B1300" s="1">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1300">
+        <v>0</v>
+      </c>
+      <c r="E1300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1301" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B1301" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1301">
+        <v>0</v>
+      </c>
+      <c r="E1301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1302" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1302">
+        <v>0</v>
+      </c>
+      <c r="E1302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1303" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B1303" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1303">
+        <v>0</v>
+      </c>
+      <c r="E1303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1304" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1304">
+        <v>0</v>
+      </c>
+      <c r="E1304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1305" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1305">
+        <v>0</v>
+      </c>
+      <c r="E1305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1306" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1306">
+        <v>1</v>
+      </c>
+      <c r="E1306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1307" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1307">
+        <v>0</v>
+      </c>
+      <c r="E1307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1308" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1308">
+        <v>1</v>
+      </c>
+      <c r="E1308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1309" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1309">
+        <v>0</v>
+      </c>
+      <c r="E1309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1310" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1310">
+        <v>0</v>
+      </c>
+      <c r="E1310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1311" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1311">
+        <v>0</v>
+      </c>
+      <c r="E1311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1312" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1312">
+        <v>0</v>
+      </c>
+      <c r="E1312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1313" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1313">
+        <v>0</v>
+      </c>
+      <c r="E1313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1314" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B1314" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1314">
+        <v>0</v>
+      </c>
+      <c r="E1314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1315" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B1315" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1315">
+        <v>1</v>
+      </c>
+      <c r="E1315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1316" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B1316" s="1">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1316">
+        <v>0</v>
+      </c>
+      <c r="E1316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1317" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B1317" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1317">
+        <v>0</v>
+      </c>
+      <c r="E1317">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/diapers.xlsx
+++ b/raw_data/diapers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coons/Projects/stink_bean/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491DC4F2-F565-3448-A3C8-6F0CED3ED650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50C078-5272-3944-95A9-1A4C270F301D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="2060" windowWidth="11860" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
+    <workbookView xWindow="9620" yWindow="800" windowWidth="11860" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E54FF-0E43-8F4B-AA4E-86E123E067B4}">
-  <dimension ref="A1:E1317"/>
+  <dimension ref="A1:E1472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1290" workbookViewId="0">
-      <selection activeCell="E1312" sqref="E1312:E1317"/>
+    <sheetView tabSelected="1" topLeftCell="A1438" workbookViewId="0">
+      <selection activeCell="E1465" sqref="E1465:E1472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22808,6 +22811,2641 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1318" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1318" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1318">
+        <v>0</v>
+      </c>
+      <c r="E1318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1319" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1319" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1319">
+        <v>0</v>
+      </c>
+      <c r="E1319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1320" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1320" s="1">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1320">
+        <v>0</v>
+      </c>
+      <c r="E1320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1321" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1321" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1321">
+        <v>1</v>
+      </c>
+      <c r="E1321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1322" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1322" s="1">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1322">
+        <v>0</v>
+      </c>
+      <c r="E1322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1323" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1323" s="1">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1323">
+        <v>0</v>
+      </c>
+      <c r="E1323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1324" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1324" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1324">
+        <v>0</v>
+      </c>
+      <c r="E1324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1325" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1325" s="1">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1325">
+        <v>0</v>
+      </c>
+      <c r="E1325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1326" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1326">
+        <v>0</v>
+      </c>
+      <c r="E1326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1327" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1327">
+        <v>0</v>
+      </c>
+      <c r="E1327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1328" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1328">
+        <v>0</v>
+      </c>
+      <c r="E1328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1329" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1329">
+        <v>0</v>
+      </c>
+      <c r="E1329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1330" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1330">
+        <v>0</v>
+      </c>
+      <c r="E1330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1331" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1331">
+        <v>1</v>
+      </c>
+      <c r="E1331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1332" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1332">
+        <v>1</v>
+      </c>
+      <c r="E1332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1333" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1333">
+        <v>1</v>
+      </c>
+      <c r="E1333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1334" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1334">
+        <v>0</v>
+      </c>
+      <c r="E1334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1335" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1335">
+        <v>0</v>
+      </c>
+      <c r="E1335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1336" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1336">
+        <v>1</v>
+      </c>
+      <c r="E1336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1337" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1337">
+        <v>0</v>
+      </c>
+      <c r="E1337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1338" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1338">
+        <v>0</v>
+      </c>
+      <c r="E1338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1339" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1339">
+        <v>0</v>
+      </c>
+      <c r="E1339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1340" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1340">
+        <v>0</v>
+      </c>
+      <c r="E1340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1341" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1341">
+        <v>0</v>
+      </c>
+      <c r="E1341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1342" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1342">
+        <v>0</v>
+      </c>
+      <c r="E1342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1343" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1343">
+        <v>1</v>
+      </c>
+      <c r="E1343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1344" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1344">
+        <v>0</v>
+      </c>
+      <c r="E1344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1345" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1345">
+        <v>0</v>
+      </c>
+      <c r="E1345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1346" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1346">
+        <v>0</v>
+      </c>
+      <c r="E1346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1347" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1347">
+        <v>0</v>
+      </c>
+      <c r="E1347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1348" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1348">
+        <v>0</v>
+      </c>
+      <c r="E1348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1349" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1349">
+        <v>1</v>
+      </c>
+      <c r="E1349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1350" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1350">
+        <v>0</v>
+      </c>
+      <c r="E1350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1351" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1351">
+        <v>0</v>
+      </c>
+      <c r="E1351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1352" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1352">
+        <v>1</v>
+      </c>
+      <c r="E1352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1353" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1353">
+        <v>0</v>
+      </c>
+      <c r="E1353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1354" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1354">
+        <v>0</v>
+      </c>
+      <c r="E1354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1355" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1355">
+        <v>1</v>
+      </c>
+      <c r="E1355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1356" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1356">
+        <v>0</v>
+      </c>
+      <c r="E1356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1357" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1357">
+        <v>0</v>
+      </c>
+      <c r="E1357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1358" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1358">
+        <v>0</v>
+      </c>
+      <c r="E1358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1359" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1359">
+        <v>1</v>
+      </c>
+      <c r="E1359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1360" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1360">
+        <v>0</v>
+      </c>
+      <c r="E1360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1361" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1361">
+        <v>0</v>
+      </c>
+      <c r="E1361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1362" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1362">
+        <v>1</v>
+      </c>
+      <c r="E1362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1363" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1363">
+        <v>0</v>
+      </c>
+      <c r="E1363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1364" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B1364" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1364">
+        <v>0</v>
+      </c>
+      <c r="E1364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1365" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B1365" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1365">
+        <v>0</v>
+      </c>
+      <c r="E1365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1366" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B1366" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1366">
+        <v>0</v>
+      </c>
+      <c r="E1366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1367" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B1367" s="1">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1367">
+        <v>1</v>
+      </c>
+      <c r="E1367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1368" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B1368" s="1">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1368">
+        <v>0</v>
+      </c>
+      <c r="E1368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1369" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B1369" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1369">
+        <v>1</v>
+      </c>
+      <c r="E1369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1370" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B1370" s="1">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1370">
+        <v>0</v>
+      </c>
+      <c r="E1370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1371" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B1371" s="1">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1371">
+        <v>0</v>
+      </c>
+      <c r="E1371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1372" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B1372" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1372">
+        <v>0</v>
+      </c>
+      <c r="E1372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1373" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B1373" s="1">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1373">
+        <v>0</v>
+      </c>
+      <c r="E1373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1374" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B1374" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1374">
+        <v>0</v>
+      </c>
+      <c r="E1374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1375" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B1375" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1375">
+        <v>1</v>
+      </c>
+      <c r="E1375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1376" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B1376" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1376">
+        <v>0</v>
+      </c>
+      <c r="E1376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1377" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B1377" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1377">
+        <v>1</v>
+      </c>
+      <c r="E1377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1378" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B1378" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1378">
+        <v>0</v>
+      </c>
+      <c r="E1378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1379" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B1379" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1379">
+        <v>0</v>
+      </c>
+      <c r="E1379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1380" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B1380" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1380">
+        <v>0</v>
+      </c>
+      <c r="E1380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1381" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B1381" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1381">
+        <v>0</v>
+      </c>
+      <c r="E1381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1382" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B1382" s="1">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1382">
+        <v>0</v>
+      </c>
+      <c r="E1382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1383" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B1383" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1383">
+        <v>0</v>
+      </c>
+      <c r="E1383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1384" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B1384" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1384">
+        <v>1</v>
+      </c>
+      <c r="E1384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1385" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B1385" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1385">
+        <v>0</v>
+      </c>
+      <c r="E1385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1386" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B1386" s="1">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1386">
+        <v>1</v>
+      </c>
+      <c r="E1386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1387" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B1387" s="1">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1387">
+        <v>1</v>
+      </c>
+      <c r="E1387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1388" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B1388" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1388">
+        <v>0</v>
+      </c>
+      <c r="E1388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1389" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B1389" s="1">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1389">
+        <v>0</v>
+      </c>
+      <c r="E1389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1390" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B1390" s="1">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1390">
+        <v>0</v>
+      </c>
+      <c r="E1390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1391" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B1391" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1391">
+        <v>0</v>
+      </c>
+      <c r="E1391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1392" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B1392" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1392">
+        <v>0</v>
+      </c>
+      <c r="E1392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1393" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B1393" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1393">
+        <v>0</v>
+      </c>
+      <c r="E1393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1394" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B1394" s="1">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1394">
+        <v>1</v>
+      </c>
+      <c r="E1394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1395" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B1395" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1395">
+        <v>0</v>
+      </c>
+      <c r="E1395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1396" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B1396" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1396">
+        <v>0</v>
+      </c>
+      <c r="E1396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1397" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B1397" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1397">
+        <v>0</v>
+      </c>
+      <c r="E1397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1398" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B1398" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1398">
+        <v>1</v>
+      </c>
+      <c r="E1398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1399" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B1399" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1399">
+        <v>0</v>
+      </c>
+      <c r="E1399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1400" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B1400" s="1">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1400">
+        <v>0</v>
+      </c>
+      <c r="E1400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1401" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B1401" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1401">
+        <v>0</v>
+      </c>
+      <c r="E1401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1402" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B1402" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1402">
+        <v>0</v>
+      </c>
+      <c r="E1402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1403" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B1403" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1403">
+        <v>0</v>
+      </c>
+      <c r="E1403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1404" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B1404" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1404">
+        <v>0</v>
+      </c>
+      <c r="E1404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1405" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B1405" s="1">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1405">
+        <v>1</v>
+      </c>
+      <c r="E1405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1406" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B1406" s="1">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1406">
+        <v>0</v>
+      </c>
+      <c r="E1406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1407" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B1407" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1407">
+        <v>0</v>
+      </c>
+      <c r="E1407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1408" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B1408" s="1">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1408">
+        <v>0</v>
+      </c>
+      <c r="E1408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1409" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B1409" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1409">
+        <v>0</v>
+      </c>
+      <c r="E1409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1410" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B1410" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1410">
+        <v>0</v>
+      </c>
+      <c r="E1410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1411" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B1411" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1411">
+        <v>0</v>
+      </c>
+      <c r="E1411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1412" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B1412" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1412">
+        <v>0</v>
+      </c>
+      <c r="E1412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1413" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B1413" s="1">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1413">
+        <v>0</v>
+      </c>
+      <c r="E1413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1414" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B1414" s="1">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1414">
+        <v>1</v>
+      </c>
+      <c r="E1414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1415" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B1415" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1415">
+        <v>0</v>
+      </c>
+      <c r="E1415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1416" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B1416" s="1">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1416">
+        <v>0</v>
+      </c>
+      <c r="E1416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1417" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B1417" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1417">
+        <v>0</v>
+      </c>
+      <c r="E1417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1418" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B1418" s="1">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1418">
+        <v>1</v>
+      </c>
+      <c r="E1418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1419" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B1419" s="1">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1419">
+        <v>0</v>
+      </c>
+      <c r="E1419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1420" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B1420" s="1">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1420">
+        <v>0</v>
+      </c>
+      <c r="E1420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1421" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B1421" s="1">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1421">
+        <v>0</v>
+      </c>
+      <c r="E1421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1422" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B1422" s="1">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1422">
+        <v>0</v>
+      </c>
+      <c r="E1422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1423" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B1423" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1423">
+        <v>1</v>
+      </c>
+      <c r="E1423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1424" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B1424" s="1">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1424">
+        <v>0</v>
+      </c>
+      <c r="E1424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1425" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B1425" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1425">
+        <v>0</v>
+      </c>
+      <c r="E1425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1426" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B1426" s="1">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1426">
+        <v>0</v>
+      </c>
+      <c r="E1426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1427" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B1427" s="1">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1427">
+        <v>1</v>
+      </c>
+      <c r="E1427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1428" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B1428" s="1">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1428">
+        <v>0</v>
+      </c>
+      <c r="E1428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1429" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B1429" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1429">
+        <v>1</v>
+      </c>
+      <c r="E1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1430" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B1430" s="1">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1430">
+        <v>0</v>
+      </c>
+      <c r="E1430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1431" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B1431" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1431">
+        <v>1</v>
+      </c>
+      <c r="E1431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1432" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B1432" s="1">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1432">
+        <v>0</v>
+      </c>
+      <c r="E1432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1433" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B1433" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1433">
+        <v>0</v>
+      </c>
+      <c r="E1433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1434" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B1434" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1434">
+        <v>1</v>
+      </c>
+      <c r="E1434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1435" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B1435" s="1">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1435">
+        <v>0</v>
+      </c>
+      <c r="E1435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1436" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B1436" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1436">
+        <v>0</v>
+      </c>
+      <c r="E1436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1437" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B1437" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1437">
+        <v>0</v>
+      </c>
+      <c r="E1437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1438" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B1438" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1438">
+        <v>0</v>
+      </c>
+      <c r="E1438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1439" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B1439" s="1">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1439">
+        <v>0</v>
+      </c>
+      <c r="E1439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1440" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1440" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1440">
+        <v>0</v>
+      </c>
+      <c r="E1440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1441" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1441">
+        <v>0</v>
+      </c>
+      <c r="E1441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1442" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1442">
+        <v>0</v>
+      </c>
+      <c r="E1442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1443" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1443">
+        <v>1</v>
+      </c>
+      <c r="E1443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1444" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1444">
+        <v>0</v>
+      </c>
+      <c r="E1444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1445" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1445">
+        <v>0</v>
+      </c>
+      <c r="E1445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1446" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1446">
+        <v>0</v>
+      </c>
+      <c r="E1446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1447" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1447" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1447">
+        <v>0</v>
+      </c>
+      <c r="E1447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1448" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B1448" s="1">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1448">
+        <v>1</v>
+      </c>
+      <c r="E1448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1449" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B1449" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1449">
+        <v>0</v>
+      </c>
+      <c r="E1449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1450" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1450">
+        <v>0</v>
+      </c>
+      <c r="E1450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1451" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1451">
+        <v>0</v>
+      </c>
+      <c r="E1451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1452" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1452">
+        <v>1</v>
+      </c>
+      <c r="E1452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1453" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B1453" s="1">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1453">
+        <v>0</v>
+      </c>
+      <c r="E1453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1454" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B1454" s="1">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1454">
+        <v>0</v>
+      </c>
+      <c r="E1454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1455" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B1455" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1455">
+        <v>1</v>
+      </c>
+      <c r="E1455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1456" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1456" s="1">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1456">
+        <v>0</v>
+      </c>
+      <c r="E1456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1457" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1457">
+        <v>0</v>
+      </c>
+      <c r="E1457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1458" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1458">
+        <v>0</v>
+      </c>
+      <c r="E1458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1459" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1459">
+        <v>0</v>
+      </c>
+      <c r="E1459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1460" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1460">
+        <v>1</v>
+      </c>
+      <c r="E1460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1461" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1461">
+        <v>1</v>
+      </c>
+      <c r="E1461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1462" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1462">
+        <v>0</v>
+      </c>
+      <c r="E1462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1463" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1463">
+        <v>0</v>
+      </c>
+      <c r="E1463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1464" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1464" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1464">
+        <v>0</v>
+      </c>
+      <c r="E1464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1465" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1465" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1465">
+        <v>0</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1466" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1466">
+        <v>0</v>
+      </c>
+      <c r="E1466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1467" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1467">
+        <v>0</v>
+      </c>
+      <c r="E1467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1468" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1468">
+        <v>0</v>
+      </c>
+      <c r="E1468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1469" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1469">
+        <v>0</v>
+      </c>
+      <c r="E1469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1470" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1470">
+        <v>0</v>
+      </c>
+      <c r="E1470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1471" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1471" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1471">
+        <v>1</v>
+      </c>
+      <c r="E1471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1472" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1472" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1472">
+        <v>0</v>
+      </c>
+      <c r="E1472">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/diapers.xlsx
+++ b/raw_data/diapers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coons/Projects/stink_bean/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50C078-5272-3944-95A9-1A4C270F301D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A93C293-D40C-864B-8810-AEBBFA65D707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9620" yWindow="800" windowWidth="11860" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E54FF-0E43-8F4B-AA4E-86E123E067B4}">
-  <dimension ref="A1:E1472"/>
+  <dimension ref="A1:E1611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1438" workbookViewId="0">
-      <selection activeCell="E1465" sqref="E1465:E1472"/>
+    <sheetView tabSelected="1" topLeftCell="A1579" workbookViewId="0">
+      <selection activeCell="E1605" sqref="E1605:E1611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25446,6 +25446,2369 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1473" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1473" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1473">
+        <v>0</v>
+      </c>
+      <c r="E1473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1474" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1474" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1474">
+        <v>0</v>
+      </c>
+      <c r="E1474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1475" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1475" s="1">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1475">
+        <v>0</v>
+      </c>
+      <c r="E1475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1476" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1476" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1476">
+        <v>0</v>
+      </c>
+      <c r="E1476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1477" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1477" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1477">
+        <v>0</v>
+      </c>
+      <c r="E1477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1478" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1478" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1478">
+        <v>0</v>
+      </c>
+      <c r="E1478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1479" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1479" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1479">
+        <v>0</v>
+      </c>
+      <c r="E1479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1480" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1480" s="1">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1480">
+        <v>0</v>
+      </c>
+      <c r="E1480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1481" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1481" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1481">
+        <v>1</v>
+      </c>
+      <c r="E1481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1482" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1482" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1482">
+        <v>0</v>
+      </c>
+      <c r="E1482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1483" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1483" s="1">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1483">
+        <v>0</v>
+      </c>
+      <c r="E1483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1484" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1484" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1484">
+        <v>0</v>
+      </c>
+      <c r="E1484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1485" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1485" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1485">
+        <v>0</v>
+      </c>
+      <c r="E1485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1486" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1486" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1486">
+        <v>0</v>
+      </c>
+      <c r="E1486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1487" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1487" s="1">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1487">
+        <v>0</v>
+      </c>
+      <c r="E1487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1488" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1488" s="1">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1488">
+        <v>0</v>
+      </c>
+      <c r="E1488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1489" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1489" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1489">
+        <v>0</v>
+      </c>
+      <c r="E1489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1490" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1490" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1490">
+        <v>0</v>
+      </c>
+      <c r="E1490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1491" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1491" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1491">
+        <v>1</v>
+      </c>
+      <c r="E1491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1492" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1492" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1492">
+        <v>0</v>
+      </c>
+      <c r="E1492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1493" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1493" s="1">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1493">
+        <v>0</v>
+      </c>
+      <c r="E1493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1494" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1494" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1494">
+        <v>0</v>
+      </c>
+      <c r="E1494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1495" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1495" s="1">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1495">
+        <v>0</v>
+      </c>
+      <c r="E1495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1496" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1496" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1496">
+        <v>0</v>
+      </c>
+      <c r="E1496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1497" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1497" s="1">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1497">
+        <v>0</v>
+      </c>
+      <c r="E1497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1498" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1498" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1498">
+        <v>1</v>
+      </c>
+      <c r="E1498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1499" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1499" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1499">
+        <v>0</v>
+      </c>
+      <c r="E1499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1500" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1500" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1500">
+        <v>0</v>
+      </c>
+      <c r="E1500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1501" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1501" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1501">
+        <v>0</v>
+      </c>
+      <c r="E1501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1502" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1502" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1502">
+        <v>0</v>
+      </c>
+      <c r="E1502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1503" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1503" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1503">
+        <v>0</v>
+      </c>
+      <c r="E1503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1504" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1504" s="1">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1504">
+        <v>1</v>
+      </c>
+      <c r="E1504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1505" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1505" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1505">
+        <v>0</v>
+      </c>
+      <c r="E1505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1506" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1506" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1506">
+        <v>0</v>
+      </c>
+      <c r="E1506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1507" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1507" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1507">
+        <v>0</v>
+      </c>
+      <c r="E1507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1508" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1508" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1508">
+        <v>0</v>
+      </c>
+      <c r="E1508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1509" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1509" s="1">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1509">
+        <v>1</v>
+      </c>
+      <c r="E1509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1510" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1510" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1510">
+        <v>0</v>
+      </c>
+      <c r="E1510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1511" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1511" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1511">
+        <v>0</v>
+      </c>
+      <c r="E1511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1512" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1512" s="1">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1512">
+        <v>0</v>
+      </c>
+      <c r="E1512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1513" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1513" s="1">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1513">
+        <v>1</v>
+      </c>
+      <c r="E1513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1514" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1514" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1514">
+        <v>0</v>
+      </c>
+      <c r="E1514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1515" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1515" s="1">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1515">
+        <v>0</v>
+      </c>
+      <c r="E1515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1516" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1516" s="1">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1516">
+        <v>0</v>
+      </c>
+      <c r="E1516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1517" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1517" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1517">
+        <v>0</v>
+      </c>
+      <c r="E1517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1518" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1518" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1518">
+        <v>0</v>
+      </c>
+      <c r="E1518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1519" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1519" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1519">
+        <v>0</v>
+      </c>
+      <c r="E1519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1520" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1520" s="1">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1520">
+        <v>1</v>
+      </c>
+      <c r="E1520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1521" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1521" s="1">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1521">
+        <v>0</v>
+      </c>
+      <c r="E1521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1522" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1522" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1522">
+        <v>0</v>
+      </c>
+      <c r="E1522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1523" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1523" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1523">
+        <v>0</v>
+      </c>
+      <c r="E1523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1524" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1524" s="1">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1524">
+        <v>0</v>
+      </c>
+      <c r="E1524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1525" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1525" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1525">
+        <v>0</v>
+      </c>
+      <c r="E1525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1526" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1526" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1526">
+        <v>1</v>
+      </c>
+      <c r="E1526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1527" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1527" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1527">
+        <v>0</v>
+      </c>
+      <c r="E1527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1528" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1528" s="1">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1528">
+        <v>0</v>
+      </c>
+      <c r="E1528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1529" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1529" s="1">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1529">
+        <v>0</v>
+      </c>
+      <c r="E1529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1530" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1530" s="1">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1530">
+        <v>1</v>
+      </c>
+      <c r="E1530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1531" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1531" s="1">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1531">
+        <v>0</v>
+      </c>
+      <c r="E1531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1532" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1532" s="1">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1532">
+        <v>0</v>
+      </c>
+      <c r="E1532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1533" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1533" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1533">
+        <v>1</v>
+      </c>
+      <c r="E1533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1534" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1534" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1534">
+        <v>0</v>
+      </c>
+      <c r="E1534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1535" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1535" s="1">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1535">
+        <v>0</v>
+      </c>
+      <c r="E1535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1536" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1536" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1536">
+        <v>0</v>
+      </c>
+      <c r="E1536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1537" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1537" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1537">
+        <v>0</v>
+      </c>
+      <c r="E1537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1538" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1538" s="1">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1538">
+        <v>0</v>
+      </c>
+      <c r="E1538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1539" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1539" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1539">
+        <v>1</v>
+      </c>
+      <c r="E1539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1540" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1540" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1540">
+        <v>0</v>
+      </c>
+      <c r="E1540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1541" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1541" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1541">
+        <v>0</v>
+      </c>
+      <c r="E1541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1542" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1542" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1542">
+        <v>0</v>
+      </c>
+      <c r="E1542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1543" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1543" s="1">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1543">
+        <v>1</v>
+      </c>
+      <c r="E1543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1544" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1544" s="1">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1544">
+        <v>0</v>
+      </c>
+      <c r="E1544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1545" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1545" s="1">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1545">
+        <v>0</v>
+      </c>
+      <c r="E1545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1546" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1546" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1546">
+        <v>0</v>
+      </c>
+      <c r="E1546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1547" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1547" s="1">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1547">
+        <v>0</v>
+      </c>
+      <c r="E1547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1548" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1548" s="1">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1548">
+        <v>0</v>
+      </c>
+      <c r="E1548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1549" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1549" s="1">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1549">
+        <v>0</v>
+      </c>
+      <c r="E1549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1550" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1550" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1550">
+        <v>0</v>
+      </c>
+      <c r="E1550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1551" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1551">
+        <v>1</v>
+      </c>
+      <c r="E1551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1552" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1552">
+        <v>0</v>
+      </c>
+      <c r="E1552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1553" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1553">
+        <v>0</v>
+      </c>
+      <c r="E1553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1554" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1554">
+        <v>0</v>
+      </c>
+      <c r="E1554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1555" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1555">
+        <v>1</v>
+      </c>
+      <c r="E1555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1556" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1556">
+        <v>0</v>
+      </c>
+      <c r="E1556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1557" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1557">
+        <v>0</v>
+      </c>
+      <c r="E1557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1558" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1558">
+        <v>0</v>
+      </c>
+      <c r="E1558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1559" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1559">
+        <v>0</v>
+      </c>
+      <c r="E1559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1560" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1560">
+        <v>0</v>
+      </c>
+      <c r="E1560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1561" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1561">
+        <v>1</v>
+      </c>
+      <c r="E1561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1562" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1562">
+        <v>0</v>
+      </c>
+      <c r="E1562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1563" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1563">
+        <v>0</v>
+      </c>
+      <c r="E1563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1564" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1564">
+        <v>0</v>
+      </c>
+      <c r="E1564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1565" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1565">
+        <v>0</v>
+      </c>
+      <c r="E1565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1566" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1566">
+        <v>0</v>
+      </c>
+      <c r="E1566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1567" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1567">
+        <v>0</v>
+      </c>
+      <c r="E1567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1568" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1568">
+        <v>0</v>
+      </c>
+      <c r="E1568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1569" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1569">
+        <v>0</v>
+      </c>
+      <c r="E1569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1570" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1570">
+        <v>0</v>
+      </c>
+      <c r="E1570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1571" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1571">
+        <v>1</v>
+      </c>
+      <c r="E1571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1572" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1572">
+        <v>0</v>
+      </c>
+      <c r="E1572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1573" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1573">
+        <v>0</v>
+      </c>
+      <c r="E1573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1574" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1574">
+        <v>0</v>
+      </c>
+      <c r="E1574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1575" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1575">
+        <v>0</v>
+      </c>
+      <c r="E1575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1576" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1576">
+        <v>0</v>
+      </c>
+      <c r="E1576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1577" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1577">
+        <v>0</v>
+      </c>
+      <c r="E1577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1578" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1578">
+        <v>1</v>
+      </c>
+      <c r="E1578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1579" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1579">
+        <v>0</v>
+      </c>
+      <c r="E1579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1580" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1580">
+        <v>1</v>
+      </c>
+      <c r="E1580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1581" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1581">
+        <v>0</v>
+      </c>
+      <c r="E1581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1582" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1582">
+        <v>0</v>
+      </c>
+      <c r="E1582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1583" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1583">
+        <v>0</v>
+      </c>
+      <c r="E1583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1584" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1584">
+        <v>0</v>
+      </c>
+      <c r="E1584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1585" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1585">
+        <v>0</v>
+      </c>
+      <c r="E1585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1586" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1586">
+        <v>1</v>
+      </c>
+      <c r="E1586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1587" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1587">
+        <v>0</v>
+      </c>
+      <c r="E1587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1588" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1588">
+        <v>0</v>
+      </c>
+      <c r="E1588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1589" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1589">
+        <v>1</v>
+      </c>
+      <c r="E1589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1590" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1590">
+        <v>0</v>
+      </c>
+      <c r="E1590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1591" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1591">
+        <v>0</v>
+      </c>
+      <c r="E1591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1592" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1592">
+        <v>0</v>
+      </c>
+      <c r="E1592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1593" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1593">
+        <v>0</v>
+      </c>
+      <c r="E1593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1594" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1594">
+        <v>0</v>
+      </c>
+      <c r="E1594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1595" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1595">
+        <v>1</v>
+      </c>
+      <c r="E1595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1596" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1596">
+        <v>0</v>
+      </c>
+      <c r="E1596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1597" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1597">
+        <v>1</v>
+      </c>
+      <c r="E1597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1598" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1598">
+        <v>0</v>
+      </c>
+      <c r="E1598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1599" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1599">
+        <v>0</v>
+      </c>
+      <c r="E1599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1600" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1600">
+        <v>0</v>
+      </c>
+      <c r="E1600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1601" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1601">
+        <v>0</v>
+      </c>
+      <c r="E1601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1602" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1602">
+        <v>1</v>
+      </c>
+      <c r="E1602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1603" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1603">
+        <v>0</v>
+      </c>
+      <c r="E1603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1604" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1604">
+        <v>0</v>
+      </c>
+      <c r="E1604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1605" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1605">
+        <v>0</v>
+      </c>
+      <c r="E1605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1606" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1606">
+        <v>0</v>
+      </c>
+      <c r="E1606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1607" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1607">
+        <v>0</v>
+      </c>
+      <c r="E1607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1608" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1608">
+        <v>0</v>
+      </c>
+      <c r="E1608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1609" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1609">
+        <v>1</v>
+      </c>
+      <c r="E1609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1610" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1610">
+        <v>1</v>
+      </c>
+      <c r="E1610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1611" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1611">
+        <v>0</v>
+      </c>
+      <c r="E1611">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/diapers.xlsx
+++ b/raw_data/diapers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coons/Projects/stink_bean/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A93C293-D40C-864B-8810-AEBBFA65D707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B131E-3C70-9144-8200-57D50AD4AB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9620" yWindow="800" windowWidth="11860" windowHeight="16940" xr2:uid="{42AB8D47-1E0D-C348-AA78-3B31B749EE61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E54FF-0E43-8F4B-AA4E-86E123E067B4}">
-  <dimension ref="A1:E1611"/>
+  <dimension ref="A1:E1717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1579" workbookViewId="0">
-      <selection activeCell="E1605" sqref="E1605:E1611"/>
+    <sheetView tabSelected="1" topLeftCell="A1687" workbookViewId="0">
+      <selection activeCell="E1711" sqref="E1711:E1717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27809,6 +27809,1808 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1612" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1612">
+        <v>0</v>
+      </c>
+      <c r="E1612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1613" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1613">
+        <v>0</v>
+      </c>
+      <c r="E1613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1614" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1614">
+        <v>0</v>
+      </c>
+      <c r="E1614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1615" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1615">
+        <v>1</v>
+      </c>
+      <c r="E1615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1616" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1616">
+        <v>0</v>
+      </c>
+      <c r="E1616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1617" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1617">
+        <v>0</v>
+      </c>
+      <c r="E1617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1618" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1618">
+        <v>0</v>
+      </c>
+      <c r="E1618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1619" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1619">
+        <v>0</v>
+      </c>
+      <c r="E1619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1620" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1620">
+        <v>1</v>
+      </c>
+      <c r="E1620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1621" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1621">
+        <v>0</v>
+      </c>
+      <c r="E1621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1622" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1622">
+        <v>0</v>
+      </c>
+      <c r="E1622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1623" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1623">
+        <v>0</v>
+      </c>
+      <c r="E1623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1624" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1624">
+        <v>1</v>
+      </c>
+      <c r="E1624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1625" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1625">
+        <v>0</v>
+      </c>
+      <c r="E1625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1626" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1626">
+        <v>0</v>
+      </c>
+      <c r="E1626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1627" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1627">
+        <v>0</v>
+      </c>
+      <c r="E1627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1628" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1628">
+        <v>0</v>
+      </c>
+      <c r="E1628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1629" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1629">
+        <v>0</v>
+      </c>
+      <c r="E1629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1630" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1630">
+        <v>1</v>
+      </c>
+      <c r="E1630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1631" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1631">
+        <v>0</v>
+      </c>
+      <c r="E1631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1632" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1632">
+        <v>1</v>
+      </c>
+      <c r="E1632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1633" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1633">
+        <v>0</v>
+      </c>
+      <c r="E1633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1634" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1634">
+        <v>0</v>
+      </c>
+      <c r="E1634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1635" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1635">
+        <v>0</v>
+      </c>
+      <c r="E1635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1636" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1636">
+        <v>0</v>
+      </c>
+      <c r="E1636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1637" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1637">
+        <v>0</v>
+      </c>
+      <c r="E1637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1638" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1638">
+        <v>0</v>
+      </c>
+      <c r="E1638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1639" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1639">
+        <v>0</v>
+      </c>
+      <c r="E1639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1640" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1640">
+        <v>0</v>
+      </c>
+      <c r="E1640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1641" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1641">
+        <v>0</v>
+      </c>
+      <c r="E1641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1642" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1642">
+        <v>0</v>
+      </c>
+      <c r="E1642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1643" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1643">
+        <v>0</v>
+      </c>
+      <c r="E1643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1644" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1644">
+        <v>0</v>
+      </c>
+      <c r="E1644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1645" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1645">
+        <v>1</v>
+      </c>
+      <c r="E1645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1646" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1646">
+        <v>0</v>
+      </c>
+      <c r="E1646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1647" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1647">
+        <v>0</v>
+      </c>
+      <c r="E1647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1648" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1648">
+        <v>1</v>
+      </c>
+      <c r="E1648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1649" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1649">
+        <v>0</v>
+      </c>
+      <c r="E1649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1650" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1650">
+        <v>0</v>
+      </c>
+      <c r="E1650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1651" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1651">
+        <v>0</v>
+      </c>
+      <c r="E1651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1652" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1652">
+        <v>0</v>
+      </c>
+      <c r="E1652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1653" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1653">
+        <v>0</v>
+      </c>
+      <c r="E1653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1654" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1654">
+        <v>0</v>
+      </c>
+      <c r="E1654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1655" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1655">
+        <v>0</v>
+      </c>
+      <c r="E1655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1656" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1656">
+        <v>0</v>
+      </c>
+      <c r="E1656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1657" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1657">
+        <v>0</v>
+      </c>
+      <c r="E1657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1658" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1658">
+        <v>0</v>
+      </c>
+      <c r="E1658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1659" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1659">
+        <v>1</v>
+      </c>
+      <c r="E1659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1660" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1660">
+        <v>0</v>
+      </c>
+      <c r="E1660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1661" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1661">
+        <v>0</v>
+      </c>
+      <c r="E1661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1662" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1662">
+        <v>0</v>
+      </c>
+      <c r="E1662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1663" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1663">
+        <v>1</v>
+      </c>
+      <c r="E1663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1664" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1664">
+        <v>0</v>
+      </c>
+      <c r="E1664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1665" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1665">
+        <v>0</v>
+      </c>
+      <c r="E1665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1666" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1666">
+        <v>0</v>
+      </c>
+      <c r="E1666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1667" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1667">
+        <v>1</v>
+      </c>
+      <c r="E1667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1668" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1668">
+        <v>0</v>
+      </c>
+      <c r="E1668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1669" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1669">
+        <v>0</v>
+      </c>
+      <c r="E1669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1670" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1670">
+        <v>0</v>
+      </c>
+      <c r="E1670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1671" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1671">
+        <v>0</v>
+      </c>
+      <c r="E1671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1672" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1672">
+        <v>1</v>
+      </c>
+      <c r="E1672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1673" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1673">
+        <v>0</v>
+      </c>
+      <c r="E1673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1674" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1674">
+        <v>0</v>
+      </c>
+      <c r="E1674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1675" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1675">
+        <v>0</v>
+      </c>
+      <c r="E1675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1676" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1676">
+        <v>0</v>
+      </c>
+      <c r="E1676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1677" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1677">
+        <v>0</v>
+      </c>
+      <c r="E1677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1678" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1678">
+        <v>0</v>
+      </c>
+      <c r="E1678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1679" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B1679" s="1">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1679">
+        <v>0</v>
+      </c>
+      <c r="E1679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1680" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B1680" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1680">
+        <v>0</v>
+      </c>
+      <c r="E1680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1681" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B1681" s="1">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1681">
+        <v>0</v>
+      </c>
+      <c r="E1681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1682" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B1682" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1682">
+        <v>0</v>
+      </c>
+      <c r="E1682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1683" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B1683" s="1">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1683">
+        <v>0</v>
+      </c>
+      <c r="E1683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1684" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B1684" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1684">
+        <v>0</v>
+      </c>
+      <c r="E1684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1685" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B1685" s="1">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1685">
+        <v>0</v>
+      </c>
+      <c r="E1685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1686" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B1686" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1686">
+        <v>1</v>
+      </c>
+      <c r="E1686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1687" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B1687" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1687">
+        <v>0</v>
+      </c>
+      <c r="E1687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1688" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B1688" s="1">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1688">
+        <v>0</v>
+      </c>
+      <c r="E1688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1689" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B1689" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1689">
+        <v>0</v>
+      </c>
+      <c r="E1689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1690" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B1690" s="1">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1690">
+        <v>1</v>
+      </c>
+      <c r="E1690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1691" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B1691" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1691">
+        <v>0</v>
+      </c>
+      <c r="E1691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1692" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B1692" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1692">
+        <v>1</v>
+      </c>
+      <c r="E1692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1693" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B1693" s="1">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1693">
+        <v>0</v>
+      </c>
+      <c r="E1693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1694" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B1694" s="1">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1694">
+        <v>0</v>
+      </c>
+      <c r="E1694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1695" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B1695" s="1">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1695">
+        <v>0</v>
+      </c>
+      <c r="E1695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1696" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B1696" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1696">
+        <v>0</v>
+      </c>
+      <c r="E1696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1697" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B1697" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1697">
+        <v>1</v>
+      </c>
+      <c r="E1697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1698" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B1698" s="1">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1698">
+        <v>0</v>
+      </c>
+      <c r="E1698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1699" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B1699" s="1">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1699">
+        <v>0</v>
+      </c>
+      <c r="E1699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1700" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B1700" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1700">
+        <v>0</v>
+      </c>
+      <c r="E1700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1701" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B1701" s="1">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1701">
+        <v>0</v>
+      </c>
+      <c r="E1701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1702" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B1702" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1702">
+        <v>0</v>
+      </c>
+      <c r="E1702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1703" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B1703" s="1">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1703">
+        <v>0</v>
+      </c>
+      <c r="E1703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1704" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B1704" s="1">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1704">
+        <v>1</v>
+      </c>
+      <c r="E1704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1705" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B1705" s="1">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1705">
+        <v>0</v>
+      </c>
+      <c r="E1705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1706" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B1706" s="1">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1706">
+        <v>0</v>
+      </c>
+      <c r="E1706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1707" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B1707" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1707">
+        <v>0</v>
+      </c>
+      <c r="E1707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1708" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B1708" s="1">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1708">
+        <v>1</v>
+      </c>
+      <c r="E1708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1709" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B1709" s="1">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1709">
+        <v>0</v>
+      </c>
+      <c r="E1709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1710" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B1710" s="1">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1710">
+        <v>0</v>
+      </c>
+      <c r="E1710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1711" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B1711" s="1">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1711">
+        <v>0</v>
+      </c>
+      <c r="E1711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1712" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B1712" s="1">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1712">
+        <v>0</v>
+      </c>
+      <c r="E1712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1713" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B1713" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1713">
+        <v>0</v>
+      </c>
+      <c r="E1713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1714" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B1714" s="1">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1714">
+        <v>0</v>
+      </c>
+      <c r="E1714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1715" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B1715" s="1">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1715">
+        <v>0</v>
+      </c>
+      <c r="E1715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1716" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B1716" s="1">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1716">
+        <v>1</v>
+      </c>
+      <c r="E1716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1717" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B1717" s="1">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1717">
+        <v>0</v>
+      </c>
+      <c r="E1717">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
